--- a/data/raw/HEESI.xlsx
+++ b/data/raw/HEESI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Reference\code\DataViz\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F5853-BB92-40BB-B2DE-0EFCF9C93CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CECC8E7-CE9E-478F-A75D-9343F9D29B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEESI ESDM" sheetId="33" r:id="rId1"/>
@@ -1915,6 +1915,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1939,35 +1943,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1996,6 +1979,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2011,14 +2018,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2029,6 +2036,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2038,27 +2054,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4955,10 +4955,10 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7684,14 +7684,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="149" t="s">
+      <c r="A1" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
       <c r="E1" t="s">
         <v>326</v>
       </c>
@@ -7700,7 +7700,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
+      <c r="A2" s="140"/>
       <c r="B2" s="3" t="s">
         <v>323</v>
       </c>
@@ -10464,28 +10464,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="173" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -11706,7 +11706,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="78" t="s">
@@ -11718,7 +11718,7 @@
       <c r="D1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="162" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="79" t="s">
@@ -11732,18 +11732,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="169" t="s">
+      <c r="A2" s="150"/>
+      <c r="B2" s="174" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="170" t="s">
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
       <c r="I2">
         <v>1000000000</v>
       </c>
@@ -13383,27 +13383,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="134" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="138"/>
-      <c r="G1" s="135"/>
-      <c r="L1" s="141" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="139"/>
+      <c r="L1" s="145" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
       <c r="AF1" s="67"/>
       <c r="AG1" s="55"/>
     </row>
@@ -15115,20 +15115,20 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="137" t="s">
+      <c r="A26" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="140" t="s">
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140" t="s">
+      <c r="F26" s="144"/>
+      <c r="G26" s="144" t="s">
         <v>235</v>
       </c>
-      <c r="H26" s="140"/>
+      <c r="H26" s="144"/>
       <c r="I26" s="85" t="s">
         <v>228</v>
       </c>
@@ -15178,14 +15178,14 @@
       <c r="H27" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="I27" s="137" t="s">
+      <c r="I27" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="137"/>
-      <c r="K27" s="137"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="137"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
       <c r="O27" s="85"/>
       <c r="P27" s="85"/>
       <c r="Q27" s="85"/>
@@ -16508,28 +16508,28 @@
       <c r="Q48" s="85"/>
     </row>
     <row r="50" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="136" t="s">
+      <c r="A50" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136" t="s">
+      <c r="B50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136" t="s">
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140" t="s">
         <v>232</v>
       </c>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="136"/>
-      <c r="P50" s="136"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
       <c r="Q50" s="72">
         <v>0.17960000000000001</v>
       </c>
@@ -17696,10 +17696,10 @@
       <c r="P72" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G77" s="134" t="s">
+      <c r="G77" s="138" t="s">
         <v>382</v>
       </c>
-      <c r="H77" s="135"/>
+      <c r="H77" s="139"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
@@ -18417,33 +18417,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="176" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="171" t="s">
+      <c r="E1" s="176" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="171" t="s">
+      <c r="F1" s="176" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="171" t="s">
+      <c r="G1" s="176" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
       <c r="G2" t="s">
         <v>159</v>
       </c>
@@ -19258,60 +19258,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="136" t="s">
+      <c r="A3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="153" t="s">
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="136" t="s">
+      <c r="M3" s="140" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -19327,28 +19327,28 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="153"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="136"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="140"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="149" t="s">
+      <c r="A5" s="140"/>
+      <c r="B5" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="180" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="174"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="182"/>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
@@ -20124,97 +20124,97 @@
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="149" t="s">
+      <c r="A26" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
       <c r="M26" s="3"/>
       <c r="AC26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="136" t="s">
+      <c r="A27" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="136" t="s">
+      <c r="C27" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="136" t="s">
+      <c r="D27" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="136" t="s">
+      <c r="E27" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="136" t="s">
+      <c r="F27" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="150" t="s">
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="147" t="s">
+      <c r="L27" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="147" t="s">
+      <c r="M27" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="147" t="s">
+      <c r="N27" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="153" t="s">
+      <c r="P27" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="153" t="s">
+      <c r="Q27" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="R27" s="153" t="s">
+      <c r="R27" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="153" t="s">
+      <c r="S27" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="153" t="s">
+      <c r="T27" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="U27" s="136" t="s">
+      <c r="U27" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="144" t="s">
+      <c r="V27" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="144" t="s">
+      <c r="W27" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="X27" s="144" t="s">
+      <c r="X27" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="Y27" s="144" t="s">
+      <c r="Y27" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" s="144" t="s">
+      <c r="Z27" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="AA27" s="143" t="s">
+      <c r="AA27" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="AC27" s="153" t="s">
+      <c r="AC27" s="150" t="s">
         <v>2</v>
       </c>
       <c r="AE27" s="20" t="s">
@@ -20234,11 +20234,11 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="136"/>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -20254,23 +20254,23 @@
       <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="151"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="P28" s="153"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="153"/>
-      <c r="S28" s="153"/>
-      <c r="T28" s="153"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="143"/>
-      <c r="AC28" s="153"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="P28" s="150"/>
+      <c r="Q28" s="150"/>
+      <c r="R28" s="150"/>
+      <c r="S28" s="150"/>
+      <c r="T28" s="150"/>
+      <c r="U28" s="140"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="161"/>
+      <c r="AC28" s="150"/>
       <c r="AE28" s="20"/>
       <c r="AG28" s="20"/>
       <c r="AI28" s="20"/>
@@ -20278,38 +20278,38 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
-      <c r="B29" s="153" t="s">
+      <c r="A29" s="140"/>
+      <c r="B29" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="153"/>
-      <c r="P29" s="136" t="s">
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
+      <c r="N29" s="150"/>
+      <c r="P29" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="143" t="s">
+      <c r="Q29" s="140"/>
+      <c r="R29" s="140"/>
+      <c r="S29" s="140"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="140"/>
+      <c r="V29" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="W29" s="143"/>
-      <c r="X29" s="143"/>
-      <c r="Y29" s="143"/>
-      <c r="Z29" s="143"/>
-      <c r="AA29" s="143"/>
+      <c r="W29" s="161"/>
+      <c r="X29" s="161"/>
+      <c r="Y29" s="161"/>
+      <c r="Z29" s="161"/>
+      <c r="AA29" s="161"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -22744,45 +22744,45 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="A51" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="149"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="149"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="148"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="136" t="s">
+      <c r="A52" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="136" t="s">
+      <c r="C52" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="136" t="s">
+      <c r="D52" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="175" t="s">
+      <c r="E52" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="136" t="s">
+      <c r="F52" s="178"/>
+      <c r="G52" s="178"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="136" t="s">
+      <c r="J52" s="140" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="3"/>
@@ -22790,10 +22790,10 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
+      <c r="A53" s="140"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="140"/>
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
@@ -22806,8 +22806,8 @@
       <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
+      <c r="I53" s="140"/>
+      <c r="J53" s="140"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -23166,23 +23166,21 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="M27:M28"/>
@@ -23198,21 +23196,23 @@
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23245,15 +23245,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
       <c r="N2" t="s">
         <v>102</v>
       </c>
@@ -23714,38 +23714,38 @@
       </c>
     </row>
     <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="149" t="s">
+      <c r="B17" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
       <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="153" t="s">
+      <c r="N17" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="153" t="s">
+      <c r="O17" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="153" t="s">
+      <c r="P17" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="Q17" s="153" t="s">
+      <c r="Q17" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="153" t="s">
+      <c r="R17" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="S17" s="136" t="s">
+      <c r="S17" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="153" t="s">
+      <c r="U17" s="150" t="s">
         <v>2</v>
       </c>
       <c r="W17" s="20" t="s">
@@ -23792,13 +23792,13 @@
       <c r="K18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="136"/>
-      <c r="U18" s="153"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="140"/>
+      <c r="U18" s="150"/>
       <c r="W18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="AA18" s="20"/>
@@ -25507,14 +25507,14 @@
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="149" t="s">
+      <c r="B39" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -25798,33 +25798,33 @@
       </c>
     </row>
     <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="M2" s="153" t="s">
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="M2" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="153" t="s">
+      <c r="N2" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="153" t="s">
+      <c r="O2" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="153" t="s">
+      <c r="P2" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="153" t="s">
+      <c r="Q2" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="136" t="s">
+      <c r="R2" s="140" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="20" t="s">
@@ -25877,12 +25877,12 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="136"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="140"/>
       <c r="T3" s="20"/>
       <c r="V3" s="20"/>
       <c r="X3" s="20"/>
@@ -27450,56 +27450,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
@@ -27542,29 +27542,29 @@
       <c r="R4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="136"/>
+      <c r="S4" s="140"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="136"/>
+      <c r="C5" s="140"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
@@ -28153,42 +28153,42 @@
       </c>
     </row>
     <row r="18" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="149" t="s">
+      <c r="C18" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
-      <c r="L18" s="149"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="149"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="149"/>
-      <c r="Q18" s="149"/>
-      <c r="R18" s="149"/>
-      <c r="S18" s="149"/>
-      <c r="T18" s="149"/>
-      <c r="V18" s="153" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="148"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="148"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="V18" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="153" t="s">
+      <c r="W18" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="X18" s="153" t="s">
+      <c r="X18" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="Y18" s="153" t="s">
+      <c r="Y18" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="153" t="s">
+      <c r="Z18" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="AA18" s="136" t="s">
+      <c r="AA18" s="140" t="s">
         <v>20</v>
       </c>
       <c r="AC18" s="20" t="s">
@@ -28211,40 +28211,40 @@
       </c>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="136" t="s">
+      <c r="C19" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="136" t="s">
+      <c r="E19" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="136"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="136"/>
-      <c r="N19" s="136"/>
-      <c r="O19" s="136"/>
-      <c r="P19" s="136"/>
-      <c r="Q19" s="136"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136" t="s">
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="136" t="s">
+      <c r="T19" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="153"/>
-      <c r="W19" s="153"/>
-      <c r="X19" s="153"/>
-      <c r="Y19" s="153"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="136"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="140"/>
       <c r="AC19" s="20"/>
       <c r="AE19" s="20"/>
       <c r="AG19" s="20"/>
@@ -28253,8 +28253,8 @@
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
       <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
@@ -28297,16 +28297,16 @@
       <c r="R20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S20" s="136"/>
-      <c r="T20" s="136"/>
-      <c r="V20" s="136" t="s">
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
+      <c r="V20" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="W20" s="136"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="136"/>
+      <c r="W20" s="140"/>
+      <c r="X20" s="140"/>
+      <c r="Y20" s="140"/>
+      <c r="Z20" s="140"/>
+      <c r="AA20" s="140"/>
       <c r="AC20" s="2" t="s">
         <v>101</v>
       </c>
@@ -30365,26 +30365,26 @@
       </c>
     </row>
     <row r="41" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C41" s="149" t="s">
+      <c r="C41" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-      <c r="N41" s="149"/>
-      <c r="O41" s="149"/>
-      <c r="P41" s="149"/>
-      <c r="Q41" s="149"/>
-      <c r="R41" s="149"/>
-      <c r="S41" s="149"/>
-      <c r="T41" s="149"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+      <c r="N41" s="148"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="148"/>
+      <c r="R41" s="148"/>
+      <c r="S41" s="148"/>
+      <c r="T41" s="148"/>
       <c r="W41" t="s">
         <v>102</v>
       </c>
@@ -30447,32 +30447,32 @@
       </c>
     </row>
     <row r="42" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C42" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="136" t="s">
+      <c r="C42" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="136" t="s">
+      <c r="E42" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="136"/>
-      <c r="L42" s="136"/>
-      <c r="M42" s="136"/>
-      <c r="N42" s="136"/>
-      <c r="O42" s="136"/>
-      <c r="P42" s="136"/>
-      <c r="Q42" s="136"/>
-      <c r="R42" s="136"/>
-      <c r="S42" s="136" t="s">
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="140"/>
+      <c r="Q42" s="140"/>
+      <c r="R42" s="140"/>
+      <c r="S42" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="T42" s="136" t="s">
+      <c r="T42" s="140" t="s">
         <v>20</v>
       </c>
       <c r="W42" t="s">
@@ -30537,8 +30537,8 @@
       </c>
     </row>
     <row r="43" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C43" s="136"/>
-      <c r="D43" s="136"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
@@ -30581,8 +30581,8 @@
       <c r="R43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
+      <c r="S43" s="140"/>
+      <c r="T43" s="140"/>
       <c r="W43" t="s">
         <v>104</v>
       </c>
@@ -31289,6 +31289,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="V18:V19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="X18:X19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="C41:T41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:R42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:R19"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="C2:S2"/>
     <mergeCell ref="C18:T18"/>
     <mergeCell ref="S3:S4"/>
@@ -31296,24 +31314,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:R3"/>
     <mergeCell ref="E5:R5"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:R19"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C41:T41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:R42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="V20:AA20"/>
-    <mergeCell ref="V18:V19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="X18:X19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="Z18:Z19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31335,65 +31335,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="153" t="s">
+      <c r="J1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="153" t="s">
+      <c r="L1" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="153" t="s">
+      <c r="M1" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="153" t="s">
+      <c r="N1" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="136" t="s">
+      <c r="O1" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="153" t="s">
+      <c r="Q1" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="153" t="s">
+      <c r="R1" s="150" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="153" t="s">
+      <c r="S1" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="153" t="s">
+      <c r="T1" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="153" t="s">
+      <c r="U1" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="136" t="s">
+      <c r="V1" s="140" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="136"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="136"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="140"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="140"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -31417,22 +31417,22 @@
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="Q3" s="136" t="s">
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="Q3" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -32568,102 +32568,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="136" t="s">
+      <c r="C3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="136" t="s">
+      <c r="I3" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="136" t="s">
+      <c r="J3" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="136" t="s">
+      <c r="L3" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="136" t="s">
+      <c r="M3" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="136" t="s">
+      <c r="N3" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="136" t="s">
+      <c r="O3" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136" t="s">
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="136" t="s">
+      <c r="T3" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="136" t="s">
+      <c r="U3" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="136" t="s">
+      <c r="V3" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="153" t="s">
+      <c r="W3" s="150" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
       <c r="O4" s="2" t="s">
         <v>47</v>
       </c>
@@ -32676,11 +32676,11 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="153"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="150"/>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
@@ -33399,11 +33399,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="C2:W2"/>
     <mergeCell ref="L3:L4"/>
@@ -33418,6 +33413,11 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33443,24 +33443,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="149" t="s">
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="148" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="152" t="s">
+      <c r="K2" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="155"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -34080,33 +34080,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="136" t="s">
+      <c r="A2" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="S2" s="175" t="s">
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="S2" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="179"/>
       <c r="X2" t="s">
         <v>107</v>
       </c>
@@ -34169,7 +34169,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="136"/>
+      <c r="A3" s="140"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -34292,31 +34292,31 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136" t="s">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="S4" s="136" t="s">
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="S4" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
       <c r="X4" t="s">
         <v>109</v>
       </c>
@@ -35769,82 +35769,82 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="136" t="s">
+      <c r="A25" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="136" t="s">
+      <c r="A26" s="140"/>
+      <c r="B26" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="136" t="s">
+      <c r="C26" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="136" t="s">
+      <c r="D26" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="136" t="s">
+      <c r="E26" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="136" t="s">
+      <c r="F26" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136" t="s">
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="136" t="s">
+      <c r="K26" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="136" t="s">
+      <c r="L26" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="136" t="s">
+      <c r="M26" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="136" t="s">
+      <c r="N26" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="136" t="s">
+      <c r="P26" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="136" t="s">
+      <c r="Q26" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="136" t="s">
+      <c r="R26" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="136" t="s">
+      <c r="S26" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="T26" s="153" t="s">
+      <c r="T26" s="150" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
       <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
@@ -35857,42 +35857,42 @@
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="153"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="150"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="136" t="s">
+      <c r="A28" s="140"/>
+      <c r="B28" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="136"/>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="140"/>
+      <c r="L28" s="140"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="140"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="136" t="s">
+      <c r="P28" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
+      <c r="Q28" s="140"/>
+      <c r="R28" s="140"/>
+      <c r="S28" s="140"/>
+      <c r="T28" s="140"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -37130,47 +37130,47 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="136" t="s">
+      <c r="A50" s="183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136" t="s">
+      <c r="C50" s="140"/>
+      <c r="D50" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="178"/>
-      <c r="B51" s="136" t="s">
+      <c r="A51" s="183"/>
+      <c r="B51" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="136" t="s">
+      <c r="C51" s="140" t="s">
         <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="136" t="s">
+      <c r="F51" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136" t="s">
+      <c r="G51" s="140"/>
+      <c r="H51" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="136"/>
+      <c r="I51" s="140"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="179"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
+      <c r="A52" s="184"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
@@ -37550,7 +37550,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="149" t="s">
+      <c r="A74" s="148" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -37585,7 +37585,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="149"/>
+      <c r="A75" s="148"/>
       <c r="B75" s="3" t="s">
         <v>115</v>
       </c>
@@ -37601,13 +37601,13 @@
       <c r="F75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="152" t="s">
+      <c r="H75" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="154"/>
-      <c r="J75" s="154"/>
-      <c r="K75" s="154"/>
-      <c r="L75" s="155"/>
+      <c r="I75" s="151"/>
+      <c r="J75" s="151"/>
+      <c r="K75" s="151"/>
+      <c r="L75" s="152"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -38645,15 +38645,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B28:N28"/>
     <mergeCell ref="A2:A4"/>
@@ -38670,14 +38669,15 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A50:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38701,7 +38701,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="140" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -38751,26 +38751,26 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="136"/>
-      <c r="C2" s="136" t="s">
+      <c r="B2" s="140"/>
+      <c r="C2" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="M2" s="149" t="s">
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="M2" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
@@ -39766,93 +39766,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="158"/>
-      <c r="H1" s="139" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
       <c r="O1" s="132"/>
-      <c r="R1" s="149" t="s">
+      <c r="R1" s="148" t="s">
         <v>239</v>
       </c>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="159" t="s">
+      <c r="A2" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="160" t="s">
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="157" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="158" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="139" t="s">
+      <c r="H2" s="161" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="143" t="s">
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="143" t="s">
+      <c r="M2" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="N2" s="144" t="s">
+      <c r="N2" s="162" t="s">
         <v>228</v>
       </c>
       <c r="O2" s="133" t="s">
         <v>420</v>
       </c>
-      <c r="R2" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="149" t="s">
+      <c r="R2" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="148" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="136" t="s">
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="W2" s="136" t="s">
+      <c r="W2" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="150" t="s">
+      <c r="X2" s="146" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="160"/>
+      <c r="A3" s="157"/>
       <c r="B3" s="128" t="s">
         <v>222</v>
       </c>
@@ -39862,10 +39862,10 @@
       <c r="D3" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="143"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="161"/>
       <c r="I3" s="25" t="s">
         <v>222</v>
       </c>
@@ -39875,9 +39875,9 @@
       <c r="K3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="144"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
       <c r="O3" s="133"/>
       <c r="P3" s="32">
         <v>8.5245999999999995</v>
@@ -39885,7 +39885,7 @@
       <c r="Q3" t="s">
         <v>226</v>
       </c>
-      <c r="R3" s="136"/>
+      <c r="R3" s="140"/>
       <c r="S3" s="3" t="s">
         <v>222</v>
       </c>
@@ -39895,9 +39895,9 @@
       <c r="U3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="151"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="147"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
@@ -41488,7 +41488,7 @@
       <c r="F23" s="84">
         <v>5714693</v>
       </c>
-      <c r="G23" s="181"/>
+      <c r="G23" s="135"/>
       <c r="H23" s="44"/>
       <c r="R23" s="64">
         <v>2019</v>
@@ -41519,7 +41519,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G24" s="180">
+      <c r="G24" s="134">
         <f>E28*P5</f>
         <v>429447452.20999998</v>
       </c>
@@ -41548,38 +41548,38 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="153" t="s">
+      <c r="A25" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="150" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="153" t="s">
+      <c r="C25" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="D25" s="153" t="s">
+      <c r="D25" s="150" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="153" t="s">
+      <c r="E25" s="150" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="153" t="s">
+      <c r="F25" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="152" t="s">
+      <c r="G25" s="149" t="s">
         <v>257</v>
       </c>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="155"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="151"/>
+      <c r="N25" s="151"/>
+      <c r="O25" s="151"/>
+      <c r="P25" s="151"/>
+      <c r="Q25" s="151"/>
+      <c r="R25" s="152"/>
       <c r="W25" t="s">
         <v>258</v>
       </c>
@@ -41591,12 +41591,12 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
       <c r="G26" s="3" t="s">
         <v>252</v>
       </c>
@@ -41618,40 +41618,40 @@
       <c r="M26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="145" t="s">
+      <c r="N26" s="163" t="s">
         <v>391</v>
       </c>
-      <c r="O26" s="146"/>
-      <c r="P26" s="149" t="s">
+      <c r="O26" s="164"/>
+      <c r="P26" s="148" t="s">
         <v>392</v>
       </c>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="152"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="149"/>
       <c r="S26" s="127" t="s">
         <v>393</v>
       </c>
-      <c r="T26" s="142" t="s">
+      <c r="T26" s="160" t="s">
         <v>394</v>
       </c>
-      <c r="U26" s="142"/>
+      <c r="U26" s="160"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="149" t="s">
+      <c r="A27" s="140"/>
+      <c r="B27" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
       <c r="O27" s="123" t="s">
         <v>95</v>
       </c>
@@ -43213,47 +43213,47 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="183">
+      <c r="A48" s="137">
         <v>2020</v>
       </c>
-      <c r="B48" s="183">
+      <c r="B48" s="137">
         <v>2442831</v>
       </c>
-      <c r="C48" s="183">
+      <c r="C48" s="137">
         <v>139469</v>
       </c>
-      <c r="D48" s="183">
+      <c r="D48" s="137">
         <v>213399</v>
       </c>
-      <c r="E48" s="183">
+      <c r="E48" s="137">
         <f t="shared" si="29"/>
         <v>2089963</v>
       </c>
-      <c r="F48" s="183">
+      <c r="F48" s="137">
         <v>174223</v>
       </c>
-      <c r="G48" s="183">
+      <c r="G48" s="137">
         <v>818900</v>
       </c>
-      <c r="H48" s="183">
+      <c r="H48" s="137">
         <v>18468</v>
       </c>
-      <c r="I48" s="183">
+      <c r="I48" s="137">
         <v>13897</v>
       </c>
-      <c r="J48" s="183">
+      <c r="J48" s="137">
         <v>8046</v>
       </c>
-      <c r="K48" s="183">
+      <c r="K48" s="137">
         <v>139592</v>
       </c>
-      <c r="L48" s="183">
+      <c r="L48" s="137">
         <v>673806</v>
       </c>
-      <c r="M48" s="183">
+      <c r="M48" s="137">
         <v>249876</v>
       </c>
-      <c r="N48" s="183">
+      <c r="N48" s="137">
         <v>184180</v>
       </c>
       <c r="O48" s="3">
@@ -43268,12 +43268,12 @@
       <c r="C49" t="s">
         <v>182</v>
       </c>
-      <c r="K49" s="184" t="s">
+      <c r="K49" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="L49" s="184"/>
-      <c r="M49" s="184"/>
-      <c r="N49" s="184"/>
+      <c r="L49" s="165"/>
+      <c r="M49" s="165"/>
+      <c r="N49" s="165"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50">
@@ -43327,21 +43327,21 @@
       <c r="G51" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="H51" s="139" t="s">
+      <c r="H51" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="I51" s="134"/>
+      <c r="I51" s="138"/>
       <c r="J51" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="K51" s="139" t="s">
+      <c r="K51" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="139"/>
-      <c r="M51" s="139"/>
-      <c r="N51" s="139"/>
-      <c r="O51" s="139"/>
-      <c r="P51" s="139"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="143"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52">
@@ -44597,6 +44597,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K51:P51"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="R1:X1"/>
@@ -44613,22 +44629,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K51:P51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44830,38 +44830,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="145" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141" t="s">
+      <c r="C1" s="145"/>
+      <c r="D1" s="145" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141" t="s">
+      <c r="E1" s="145"/>
+      <c r="F1" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141" t="s">
+      <c r="G1" s="145"/>
+      <c r="H1" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141" t="s">
+      <c r="I1" s="145"/>
+      <c r="J1" s="145" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141" t="s">
+      <c r="K1" s="145"/>
+      <c r="L1" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="N1" s="141" t="s">
+      <c r="M1" s="145"/>
+      <c r="N1" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141" t="s">
+      <c r="O1" s="145"/>
+      <c r="P1" s="145" t="s">
         <v>356</v>
       </c>
-      <c r="Q1" s="141"/>
+      <c r="Q1" s="145"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -46550,13 +46550,13 @@
       <c r="B1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="148" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
       <c r="L1">
         <v>0.17245495999999999</v>
       </c>
@@ -47502,13 +47502,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="107"/>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="166" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
@@ -48115,22 +48115,22 @@
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
-      <c r="M2" s="144"/>
-      <c r="N2" s="144"/>
-      <c r="O2" s="144"/>
-      <c r="P2" s="144"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -49000,11 +49000,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="167" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
       <c r="E1" s="46" t="s">
         <v>185</v>
       </c>
@@ -49014,20 +49014,20 @@
       <c r="G1" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="164" t="s">
+      <c r="H1" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="163" t="s">
+      <c r="I1" s="169"/>
+      <c r="J1" s="169"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="169"/>
+      <c r="M1" s="168" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="141"/>
-      <c r="O1" s="141"/>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
@@ -49800,13 +49800,13 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23" s="182">
+      <c r="B23" s="136">
         <v>563728255</v>
       </c>
-      <c r="C23" s="182">
+      <c r="C23" s="136">
         <v>405052868</v>
       </c>
-      <c r="D23" s="182">
+      <c r="D23" s="136">
         <v>8756363</v>
       </c>
       <c r="E23" s="49">
@@ -50899,64 +50899,64 @@
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B50" s="149" t="s">
+      <c r="B50" s="148" t="s">
         <v>423</v>
       </c>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="149"/>
-      <c r="L50" s="149"/>
-      <c r="M50" s="149"/>
-      <c r="P50" s="149" t="s">
+      <c r="C50" s="148"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="148"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="148"/>
+      <c r="J50" s="148"/>
+      <c r="K50" s="148"/>
+      <c r="L50" s="148"/>
+      <c r="M50" s="148"/>
+      <c r="P50" s="148" t="s">
         <v>423</v>
       </c>
-      <c r="Q50" s="149"/>
-      <c r="R50" s="149"/>
-      <c r="S50" s="149"/>
-      <c r="T50" s="149"/>
-      <c r="U50" s="149"/>
-      <c r="V50" s="149"/>
-      <c r="W50" s="149"/>
-      <c r="X50" s="149"/>
-      <c r="Y50" s="149"/>
-      <c r="Z50" s="149"/>
-      <c r="AA50" s="149"/>
+      <c r="Q50" s="148"/>
+      <c r="R50" s="148"/>
+      <c r="S50" s="148"/>
+      <c r="T50" s="148"/>
+      <c r="U50" s="148"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="148"/>
+      <c r="X50" s="148"/>
+      <c r="Y50" s="148"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="148"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="149" t="s">
+      <c r="B51" s="148" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="149"/>
-      <c r="P51" s="149" t="s">
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="148"/>
+      <c r="P51" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="Q51" s="149"/>
-      <c r="R51" s="149"/>
-      <c r="S51" s="149"/>
-      <c r="T51" s="149"/>
-      <c r="U51" s="149"/>
-      <c r="V51" s="149"/>
-      <c r="W51" s="149"/>
-      <c r="X51" s="149"/>
-      <c r="Y51" s="149"/>
-      <c r="Z51" s="149"/>
-      <c r="AA51" s="149"/>
+      <c r="Q51" s="148"/>
+      <c r="R51" s="148"/>
+      <c r="S51" s="148"/>
+      <c r="T51" s="148"/>
+      <c r="U51" s="148"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="148"/>
+      <c r="X51" s="148"/>
+      <c r="Y51" s="148"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="148"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -52875,36 +52875,36 @@
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B75" s="149" t="s">
+      <c r="B75" s="148" t="s">
         <v>423</v>
       </c>
-      <c r="C75" s="149"/>
-      <c r="D75" s="149"/>
-      <c r="E75" s="149"/>
-      <c r="F75" s="149"/>
-      <c r="G75" s="149"/>
-      <c r="H75" s="149"/>
-      <c r="I75" s="149"/>
-      <c r="J75" s="149"/>
-      <c r="K75" s="149"/>
-      <c r="L75" s="149"/>
-      <c r="M75" s="149"/>
+      <c r="C75" s="148"/>
+      <c r="D75" s="148"/>
+      <c r="E75" s="148"/>
+      <c r="F75" s="148"/>
+      <c r="G75" s="148"/>
+      <c r="H75" s="148"/>
+      <c r="I75" s="148"/>
+      <c r="J75" s="148"/>
+      <c r="K75" s="148"/>
+      <c r="L75" s="148"/>
+      <c r="M75" s="148"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B76" s="149" t="s">
+      <c r="B76" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="149"/>
-      <c r="D76" s="149"/>
-      <c r="E76" s="149"/>
-      <c r="F76" s="149"/>
-      <c r="G76" s="149"/>
-      <c r="H76" s="149"/>
-      <c r="I76" s="149"/>
-      <c r="J76" s="149"/>
-      <c r="K76" s="149"/>
-      <c r="L76" s="149"/>
-      <c r="M76" s="149"/>
+      <c r="C76" s="148"/>
+      <c r="D76" s="148"/>
+      <c r="E76" s="148"/>
+      <c r="F76" s="148"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="148"/>
+      <c r="I76" s="148"/>
+      <c r="J76" s="148"/>
+      <c r="K76" s="148"/>
+      <c r="L76" s="148"/>
+      <c r="M76" s="148"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -54081,7 +54081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B158D003-6CE6-47DC-9594-4C83C40B7901}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N54" sqref="N54:N74"/>
     </sheetView>
   </sheetViews>
@@ -54091,10 +54091,10 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
@@ -54107,7 +54107,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -54123,7 +54123,7 @@
         <v>198</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="165" t="s">
+      <c r="G1" s="170" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -54145,32 +54145,32 @@
         <v>286</v>
       </c>
       <c r="N1" s="95"/>
-      <c r="O1" s="141" t="s">
+      <c r="O1" s="145" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="141"/>
-      <c r="Q1" s="141"/>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
-      <c r="B2" s="149" t="s">
+      <c r="A2" s="140"/>
+      <c r="B2" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="170"/>
+      <c r="H2" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
       <c r="L2" s="99"/>
       <c r="N2" t="s">
         <v>218</v>
@@ -55742,11 +55742,11 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="53"/>
@@ -55984,22 +55984,22 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="149" t="s">
+      <c r="B51" s="148" t="s">
         <v>437</v>
       </c>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="149"/>
-      <c r="N51" s="149"/>
-      <c r="O51" s="149"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="148"/>
+      <c r="I51" s="148"/>
+      <c r="J51" s="148"/>
+      <c r="K51" s="148"/>
+      <c r="L51" s="148"/>
+      <c r="M51" s="148"/>
+      <c r="N51" s="148"/>
+      <c r="O51" s="148"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
@@ -56046,24 +56046,24 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="149" t="s">
+      <c r="B53" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149" t="s">
+      <c r="C53" s="148"/>
+      <c r="D53" s="148"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="149"/>
+      <c r="J53" s="148"/>
+      <c r="K53" s="148"/>
+      <c r="L53" s="148"/>
+      <c r="M53" s="148"/>
+      <c r="N53" s="148"/>
+      <c r="O53" s="148"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -57201,6 +57201,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H2:K2"/>
     <mergeCell ref="B53:H53"/>
     <mergeCell ref="I53:O53"/>
     <mergeCell ref="B51:O51"/>
@@ -57208,8 +57210,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -57533,11 +57533,11 @@
         <v>119125379</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R22" si="6">C3</f>
+        <f t="shared" ref="R3:R20" si="6">C3</f>
         <v>441731352</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S22" si="7">D3</f>
+        <f t="shared" ref="S3:S20" si="7">D3</f>
         <v>172083907</v>
       </c>
       <c r="T3">
@@ -59927,7 +59927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="62" t="s">
         <v>178</v>
       </c>
@@ -59943,10 +59943,10 @@
       <c r="G24" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="167">
+      <c r="H24" s="171">
         <v>2132298</v>
       </c>
-      <c r="I24" s="168" t="s">
+      <c r="I24" s="172" t="s">
         <v>209</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -59990,8 +59990,8 @@
         <f>D2*$H$44</f>
         <v>955101.35158651904</v>
       </c>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="172"/>
       <c r="K25" s="3">
         <v>2000</v>
       </c>
@@ -60039,8 +60039,8 @@
         <f t="shared" ref="G26:G43" si="48">D3*$H$44</f>
         <v>998224.41556934861</v>
       </c>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="172"/>
       <c r="K26" s="3">
         <v>2001</v>
       </c>
@@ -60088,8 +60088,8 @@
         <f t="shared" si="48"/>
         <v>1095320.5754394107</v>
       </c>
-      <c r="H27" s="167"/>
-      <c r="I27" s="168"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="172"/>
       <c r="K27" s="3">
         <v>2002</v>
       </c>
@@ -60137,8 +60137,8 @@
         <f t="shared" si="48"/>
         <v>1184187.3310516851</v>
       </c>
-      <c r="H28" s="167"/>
-      <c r="I28" s="168"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="172"/>
       <c r="K28" s="3">
         <v>2003</v>
       </c>
@@ -60186,8 +60186,8 @@
         <f t="shared" si="48"/>
         <v>1087962.0395614596</v>
       </c>
-      <c r="H29" s="167"/>
-      <c r="I29" s="168"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="172"/>
       <c r="K29" s="3">
         <v>2004</v>
       </c>
@@ -60235,8 +60235,8 @@
         <f t="shared" si="48"/>
         <v>1109051.429897326</v>
       </c>
-      <c r="H30" s="167"/>
-      <c r="I30" s="168"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="172"/>
       <c r="K30" s="3">
         <v>2005</v>
       </c>
@@ -60284,8 +60284,8 @@
         <f t="shared" si="48"/>
         <v>1140433.8186669762</v>
       </c>
-      <c r="H31" s="167"/>
-      <c r="I31" s="168"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="172"/>
       <c r="K31" s="3">
         <v>2006</v>
       </c>
@@ -60333,8 +60333,8 @@
         <f t="shared" si="48"/>
         <v>1065164.0814432392</v>
       </c>
-      <c r="H32" s="167"/>
-      <c r="I32" s="168"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="172"/>
       <c r="K32" s="3">
         <v>2007</v>
       </c>
@@ -60387,8 +60387,8 @@
         <f t="shared" si="48"/>
         <v>1369276.4429491272</v>
       </c>
-      <c r="H33" s="167"/>
-      <c r="I33" s="168"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="172"/>
       <c r="K33" s="3">
         <v>2008</v>
       </c>
@@ -60441,8 +60441,8 @@
         <f t="shared" si="48"/>
         <v>1456205.4063460759</v>
       </c>
-      <c r="H34" s="167"/>
-      <c r="I34" s="168"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
       <c r="K34" s="3">
         <v>2009</v>
       </c>
@@ -60495,8 +60495,8 @@
         <f t="shared" si="48"/>
         <v>1565880.7645455075</v>
       </c>
-      <c r="H35" s="167"/>
-      <c r="I35" s="168"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="172"/>
       <c r="K35" s="3">
         <v>2010</v>
       </c>
@@ -60549,8 +60549,8 @@
         <f t="shared" si="48"/>
         <v>1518117.8258599688</v>
       </c>
-      <c r="H36" s="167"/>
-      <c r="I36" s="168"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="172"/>
       <c r="K36" s="3">
         <v>2011</v>
       </c>
@@ -60603,8 +60603,8 @@
         <f t="shared" si="48"/>
         <v>1505054.8987760313</v>
       </c>
-      <c r="H37" s="167"/>
-      <c r="I37" s="168"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="172"/>
       <c r="K37" s="3">
         <v>2012</v>
       </c>
@@ -60657,8 +60657,8 @@
         <f t="shared" si="48"/>
         <v>1348105.7891989097</v>
       </c>
-      <c r="H38" s="167"/>
-      <c r="I38" s="168"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="172"/>
       <c r="K38" s="3">
         <v>2013</v>
       </c>
@@ -60715,8 +60715,8 @@
         <f t="shared" si="48"/>
         <v>1574194.3906259066</v>
       </c>
-      <c r="H39" s="167"/>
-      <c r="I39" s="168"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="172"/>
       <c r="K39" s="3">
         <v>2014</v>
       </c>
@@ -60774,8 +60774,8 @@
         <f t="shared" si="48"/>
         <v>1597921.2251290679</v>
       </c>
-      <c r="H40" s="167"/>
-      <c r="I40" s="168"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="172"/>
       <c r="K40" s="3">
         <v>2015</v>
       </c>
@@ -60829,8 +60829,8 @@
         <f t="shared" si="48"/>
         <v>1607806.4678925693</v>
       </c>
-      <c r="H41" s="167"/>
-      <c r="I41" s="168"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="172"/>
       <c r="K41" s="3">
         <v>2016</v>
       </c>
@@ -60884,8 +60884,8 @@
         <f t="shared" si="48"/>
         <v>1596045.1708335751</v>
       </c>
-      <c r="H42" s="167"/>
-      <c r="I42" s="168"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="172"/>
       <c r="K42" s="3">
         <v>2017</v>
       </c>
@@ -60939,8 +60939,8 @@
         <f t="shared" si="48"/>
         <v>1672433.5228261501</v>
       </c>
-      <c r="H43" s="167"/>
-      <c r="I43" s="168"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="172"/>
       <c r="K43" s="3">
         <v>2018</v>
       </c>
@@ -60995,11 +60995,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70ADBEC-D4B6-43FE-BDD8-10D822D35B73}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/HEESI.xlsx
+++ b/data/raw/HEESI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Reference\code\DataViz\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\References\DataViz\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CECC8E7-CE9E-478F-A75D-9343F9D29B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190179F9-94BE-4858-AFE5-6C6F24D6C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HEESI ESDM" sheetId="33" r:id="rId1"/>
@@ -1692,7 +1692,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1916,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,14 +1942,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,30 +2001,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2036,6 +2035,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2045,21 +2053,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3432,79 +3434,79 @@
         <v>385</v>
       </c>
       <c r="C4">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>5510791.1299999999</v>
       </c>
       <c r="D4">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>14242689.409999998</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>21798715.5</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>28107327.549999997</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>43322124.169999994</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>44342845.359999999</v>
       </c>
       <c r="I4">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>55060848.829999998</v>
       </c>
       <c r="J4">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>40505443.959999993</v>
       </c>
       <c r="K4">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>50701450.509999998</v>
       </c>
       <c r="L4">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>57577053.269999996</v>
       </c>
       <c r="M4">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>57838568.899999999</v>
       </c>
       <c r="N4">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>61771646.749999993</v>
       </c>
       <c r="O4">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>57778921.959999993</v>
       </c>
       <c r="P4">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>59072708.909999996</v>
       </c>
       <c r="Q4">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>52868392.809999995</v>
       </c>
       <c r="R4">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>48741720.989999995</v>
       </c>
       <c r="S4">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>46951450.839999996</v>
       </c>
       <c r="T4">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>45024820.199999996</v>
       </c>
       <c r="U4">
-        <f>VLOOKUP(U1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$O$47,15)</f>
+        <f>VLOOKUP(U1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$O$48,15)</f>
         <v>43483136.43</v>
       </c>
     </row>
@@ -3513,79 +3515,79 @@
         <v>386</v>
       </c>
       <c r="B5">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>232900767.09199998</v>
       </c>
       <c r="C5">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>207520117.4788</v>
       </c>
       <c r="D5">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>223214434.60399997</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>222300256.5</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>215142721.0282</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>201834950.919</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>190952071.47659999</v>
       </c>
       <c r="I5">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>177751626.08139998</v>
       </c>
       <c r="J5">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>175433130.9472</v>
       </c>
       <c r="K5">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>169920016.3892</v>
       </c>
       <c r="L5">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>206162165.748</v>
       </c>
       <c r="M5">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>187298649.5562</v>
       </c>
       <c r="N5">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>155251754.2184</v>
       </c>
       <c r="O5">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>164098584.0984</v>
       </c>
       <c r="P5">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>155031725.7678</v>
       </c>
       <c r="Q5">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>162574317.42159998</v>
       </c>
       <c r="R5">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>172441934.05319998</v>
       </c>
       <c r="S5">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>163847483.4808</v>
       </c>
       <c r="T5">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$46, 17)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$47, 17)</f>
         <v>162484681.25259998</v>
       </c>
     </row>
@@ -4199,79 +4201,79 @@
         <v>380</v>
       </c>
       <c r="B19">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2901302</v>
       </c>
       <c r="C19">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2806084</v>
       </c>
       <c r="D19">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3036355</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3155243</v>
       </c>
       <c r="F19">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3003945</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2985341</v>
       </c>
       <c r="H19">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2953997</v>
       </c>
       <c r="I19">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2805540</v>
       </c>
       <c r="J19">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2885328</v>
       </c>
       <c r="K19">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3060897</v>
       </c>
       <c r="L19">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3407592</v>
       </c>
       <c r="M19">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3256379</v>
       </c>
       <c r="N19">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3174639</v>
       </c>
       <c r="O19">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3120838</v>
       </c>
       <c r="P19">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3175791</v>
       </c>
       <c r="Q19">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3116142</v>
       </c>
       <c r="R19">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3070239</v>
       </c>
       <c r="S19">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2963184</v>
       </c>
       <c r="T19">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2996802</v>
       </c>
     </row>
@@ -4439,79 +4441,79 @@
         <v>388</v>
       </c>
       <c r="B23">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>232900767.09199998</v>
       </c>
       <c r="C23">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>207520117.4788</v>
       </c>
       <c r="D23">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>223214434.60399997</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>222300256.5</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>215142721.0282</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>201834950.919</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>190952071.47659999</v>
       </c>
       <c r="I23">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>177751626.08139998</v>
       </c>
       <c r="J23">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>175433130.9472</v>
       </c>
       <c r="K23">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>169920016.3892</v>
       </c>
       <c r="L23">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>206162165.748</v>
       </c>
       <c r="M23">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>187298649.5562</v>
       </c>
       <c r="N23">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>155251754.2184</v>
       </c>
       <c r="O23">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>164098584.0984</v>
       </c>
       <c r="P23">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>155031725.7678</v>
       </c>
       <c r="Q23">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>162574317.42159998</v>
       </c>
       <c r="R23">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>172441934.05319998</v>
       </c>
       <c r="S23">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>163847483.4808</v>
       </c>
       <c r="T23">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$R$47,17)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$R$48,17)</f>
         <v>162484681.25259998</v>
       </c>
     </row>
@@ -4525,83 +4527,83 @@
         <v>405</v>
       </c>
       <c r="B25">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>273128682.34999996</v>
       </c>
       <c r="C25">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>256849894.64999998</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>285559208.07999998</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>296360303.52999997</v>
       </c>
       <c r="F25">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>277197948.29999995</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>260539040.64999998</v>
       </c>
       <c r="H25">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>247568072.26999998</v>
       </c>
       <c r="I25">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>224166991.71999997</v>
       </c>
       <c r="J25">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>219082521.05999997</v>
       </c>
       <c r="K25">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>210574729.77999997</v>
       </c>
       <c r="L25">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>246158611.63</v>
       </c>
       <c r="M25">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>222926300.88999999</v>
       </c>
       <c r="N25">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>175763499.91</v>
       </c>
       <c r="O25">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>179456610.88</v>
       </c>
       <c r="P25">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>168766017.41999999</v>
       </c>
       <c r="Q25">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>158551047.97</v>
       </c>
       <c r="R25">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>157444304.16999999</v>
       </c>
       <c r="S25">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>145128590.17999998</v>
       </c>
       <c r="T25">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>167044875.66</v>
       </c>
       <c r="U25">
-        <f>VLOOKUP(U1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,7)</f>
+        <f>VLOOKUP(U1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,7)</f>
         <v>143815150.76999998</v>
       </c>
     </row>
@@ -4610,83 +4612,83 @@
         <v>406</v>
       </c>
       <c r="B26">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>5487518.4799999995</v>
       </c>
       <c r="C26">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>2207798.73</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4637463.3899999997</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4211315.3099999996</v>
       </c>
       <c r="F26">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4940869.79</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4237001.42</v>
       </c>
       <c r="H26">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>5668010.8099999996</v>
       </c>
       <c r="I26">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>6050199.4399999995</v>
       </c>
       <c r="J26">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>2274858.44</v>
       </c>
       <c r="K26">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>3069576.34</v>
       </c>
       <c r="L26">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>3597089.7399999998</v>
       </c>
       <c r="M26">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>2463280.71</v>
       </c>
       <c r="N26">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4851226.9899999993</v>
       </c>
       <c r="O26">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4593676.33</v>
       </c>
       <c r="P26">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>5129809.2299999995</v>
       </c>
       <c r="Q26">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4275444.3899999997</v>
       </c>
       <c r="R26">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>4276133.9499999993</v>
       </c>
       <c r="S26">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>3864639.0199999996</v>
       </c>
       <c r="T26">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>5144462.38</v>
       </c>
       <c r="U26">
-        <f>VLOOKUP(U1,'Prod. Gas Bumi, LNG, LPG'!$B$52:$I$71,8)</f>
+        <f>VLOOKUP(U1,'Prod. Gas Bumi, LNG, LPG'!$B$53:$I$72,8)</f>
         <v>3476589.13</v>
       </c>
     </row>
@@ -7354,79 +7356,79 @@
         <v>259</v>
       </c>
       <c r="B31">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2901302</v>
       </c>
       <c r="C31">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2806084</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3036355</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3155243</v>
       </c>
       <c r="F31">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3003945</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2985341</v>
       </c>
       <c r="H31">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2953997</v>
       </c>
       <c r="I31">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2805540</v>
       </c>
       <c r="J31">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2885328</v>
       </c>
       <c r="K31">
-        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(K1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3060897</v>
       </c>
       <c r="L31">
-        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(L1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3407592</v>
       </c>
       <c r="M31">
-        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(M1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3256379</v>
       </c>
       <c r="N31">
-        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(N1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3174639</v>
       </c>
       <c r="O31">
-        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(O1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3120838</v>
       </c>
       <c r="P31">
-        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(P1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3175791</v>
       </c>
       <c r="Q31">
-        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(Q1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3116142</v>
       </c>
       <c r="R31">
-        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(R1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3070239</v>
       </c>
       <c r="S31">
-        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(S1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2963184</v>
       </c>
       <c r="T31">
-        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(T1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2996802</v>
       </c>
     </row>
@@ -7684,14 +7686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="148" t="s">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="153" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
       <c r="E1" t="s">
         <v>326</v>
       </c>
@@ -7700,7 +7702,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
+      <c r="A2" s="139"/>
       <c r="B2" s="3" t="s">
         <v>323</v>
       </c>
@@ -10464,28 +10466,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:162" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="172"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="172"/>
+      <c r="P1" s="172"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="172"/>
     </row>
     <row r="2" spans="1:162" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -11706,7 +11708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="157" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="78" t="s">
@@ -11718,7 +11720,7 @@
       <c r="D1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="147" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="79" t="s">
@@ -11732,18 +11734,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="174" t="s">
+      <c r="A2" s="157"/>
+      <c r="B2" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="175" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="174" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2">
         <v>1000000000</v>
       </c>
@@ -13383,27 +13385,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="138" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="142"/>
-      <c r="G1" s="139"/>
-      <c r="L1" s="145" t="s">
+      <c r="F1" s="141"/>
+      <c r="G1" s="138"/>
+      <c r="L1" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
       <c r="AF1" s="67"/>
       <c r="AG1" s="55"/>
     </row>
@@ -13509,7 +13511,7 @@
         <v>2901302</v>
       </c>
       <c r="M3" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E28</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E29</f>
         <v>2491139</v>
       </c>
       <c r="N3" s="74">
@@ -13589,7 +13591,7 @@
         <v>2806084</v>
       </c>
       <c r="M4" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E29</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E30</f>
         <v>2400513</v>
       </c>
       <c r="N4" s="74">
@@ -13669,7 +13671,7 @@
         <v>3036355</v>
       </c>
       <c r="M5" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E30</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E31</f>
         <v>2656895</v>
       </c>
       <c r="N5" s="74">
@@ -13749,7 +13751,7 @@
         <v>3155243</v>
       </c>
       <c r="M6" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E31</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E32</f>
         <v>2778515</v>
       </c>
       <c r="N6" s="74">
@@ -13829,7 +13831,7 @@
         <v>3003945</v>
       </c>
       <c r="M7" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E32</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E33</f>
         <v>2662289</v>
       </c>
       <c r="N7" s="74">
@@ -13909,7 +13911,7 @@
         <v>2985341</v>
       </c>
       <c r="M8" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E33</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E34</f>
         <v>2678215</v>
       </c>
       <c r="N8" s="74">
@@ -13989,7 +13991,7 @@
         <v>2953997</v>
       </c>
       <c r="M9" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E34</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E35</f>
         <v>2656153</v>
       </c>
       <c r="N9" s="74">
@@ -14069,7 +14071,7 @@
         <v>2805540</v>
       </c>
       <c r="M10" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E35</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E36</f>
         <v>2560325</v>
       </c>
       <c r="N10" s="74">
@@ -14149,7 +14151,7 @@
         <v>2885328</v>
       </c>
       <c r="M11" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E36</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E37</f>
         <v>2616737</v>
       </c>
       <c r="N11" s="74">
@@ -14229,7 +14231,7 @@
         <v>3060897</v>
       </c>
       <c r="M12" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E37</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E38</f>
         <v>2733175</v>
       </c>
       <c r="N12" s="74">
@@ -14309,7 +14311,7 @@
         <v>3407592</v>
       </c>
       <c r="M13" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E38</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E39</f>
         <v>3047855</v>
       </c>
       <c r="N13" s="74">
@@ -14389,7 +14391,7 @@
         <v>3256379</v>
       </c>
       <c r="M14" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E39</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E40</f>
         <v>2890922</v>
       </c>
       <c r="N14" s="74">
@@ -14469,7 +14471,7 @@
         <v>3174639</v>
       </c>
       <c r="M15" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E40</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E41</f>
         <v>2752400</v>
       </c>
       <c r="N15" s="74">
@@ -14549,7 +14551,7 @@
         <v>3120838</v>
       </c>
       <c r="M16" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E41</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E42</f>
         <v>2727389</v>
       </c>
       <c r="N16" s="74">
@@ -14629,7 +14631,7 @@
         <v>3175791</v>
       </c>
       <c r="M17" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E42</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E43</f>
         <v>2687910</v>
       </c>
       <c r="N17" s="74">
@@ -14709,7 +14711,7 @@
         <v>3116142</v>
       </c>
       <c r="M18" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E43</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E44</f>
         <v>2674695</v>
       </c>
       <c r="N18" s="74">
@@ -14789,7 +14791,7 @@
         <v>3070239</v>
       </c>
       <c r="M19" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E44</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E45</f>
         <v>2637045</v>
       </c>
       <c r="N19" s="74">
@@ -14869,7 +14871,7 @@
         <v>2963184</v>
       </c>
       <c r="M20" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E45</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E46</f>
         <v>2552026</v>
       </c>
       <c r="N20" s="74">
@@ -14949,7 +14951,7 @@
         <v>2996802</v>
       </c>
       <c r="M21" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E46</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E47</f>
         <v>2562814</v>
       </c>
       <c r="N21" s="74">
@@ -15029,7 +15031,7 @@
         <v>2996802</v>
       </c>
       <c r="M22" s="1">
-        <f>'Prod. Gas Bumi, LNG, LPG'!E47</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!E48</f>
         <v>2371582</v>
       </c>
       <c r="N22" s="74">
@@ -15038,23 +15040,23 @@
       </c>
       <c r="O22" s="74">
         <f t="shared" si="9"/>
-        <v>512517000</v>
+        <v>512517022.59842336</v>
       </c>
       <c r="P22" s="74">
         <f t="shared" ref="P22" si="21">L47</f>
-        <v>0</v>
+        <v>282588.73454260686</v>
       </c>
       <c r="Q22" s="74">
         <f t="shared" ref="Q22" si="22">N22+O22-P22</f>
-        <v>514191032.21764606</v>
+        <v>513908466.08152682</v>
       </c>
       <c r="R22" s="92">
         <f t="shared" ref="R22" si="23">M22-Q22</f>
-        <v>-511819450.21764606</v>
+        <v>-511536884.08152682</v>
       </c>
       <c r="S22" s="74">
         <f t="shared" ref="S22" si="24">R22/M22</f>
-        <v>-215.8135161329636</v>
+        <v>-215.69436944686154</v>
       </c>
       <c r="T22" s="44">
         <f t="shared" ref="T22" si="25">Q22/(1-S22)</f>
@@ -15115,20 +15117,20 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="144" t="s">
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="143" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144" t="s">
+      <c r="F26" s="143"/>
+      <c r="G26" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="H26" s="144"/>
+      <c r="H26" s="143"/>
       <c r="I26" s="85" t="s">
         <v>228</v>
       </c>
@@ -15178,14 +15180,14 @@
       <c r="H27" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="I27" s="141" t="s">
+      <c r="I27" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
       <c r="O27" s="85"/>
       <c r="P27" s="85"/>
       <c r="Q27" s="85"/>
@@ -15235,7 +15237,7 @@
       </c>
       <c r="M28" s="90"/>
       <c r="N28" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y28</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y29</f>
         <v>1351010.8886362319</v>
       </c>
       <c r="O28" s="90">
@@ -15299,7 +15301,7 @@
       </c>
       <c r="M29" s="90"/>
       <c r="N29" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y29</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y30</f>
         <v>1235749.8034039098</v>
       </c>
       <c r="O29" s="90">
@@ -15363,7 +15365,7 @@
       </c>
       <c r="M30" s="90"/>
       <c r="N30" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y30</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y31</f>
         <v>1377441.406195255</v>
       </c>
       <c r="O30" s="90">
@@ -15427,7 +15429,7 @@
       </c>
       <c r="M31" s="90"/>
       <c r="N31" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y31</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y32</f>
         <v>1415969.4413829111</v>
       </c>
       <c r="O31" s="90">
@@ -15491,7 +15493,7 @@
       </c>
       <c r="M32" s="90"/>
       <c r="N32" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y32</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y33</f>
         <v>1411045.0059643833</v>
       </c>
       <c r="O32" s="90">
@@ -15555,7 +15557,7 @@
       </c>
       <c r="M33" s="90"/>
       <c r="N33" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y33</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y34</f>
         <v>1422107.2863217124</v>
       </c>
       <c r="O33" s="90">
@@ -15619,7 +15621,7 @@
       </c>
       <c r="M34" s="90"/>
       <c r="N34" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y34</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y35</f>
         <v>1364898.8736968501</v>
       </c>
       <c r="O34" s="90">
@@ -15683,7 +15685,7 @@
       </c>
       <c r="M35" s="90"/>
       <c r="N35" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y35</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y36</f>
         <v>1350498.7233099367</v>
       </c>
       <c r="O35" s="90">
@@ -15747,7 +15749,7 @@
       </c>
       <c r="M36" s="90"/>
       <c r="N36" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y36</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y37</f>
         <v>1252616.5955519462</v>
       </c>
       <c r="O36" s="90">
@@ -15811,7 +15813,7 @@
       </c>
       <c r="M37" s="90"/>
       <c r="N37" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y37</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y38</f>
         <v>1279781.1178096179</v>
       </c>
       <c r="O37" s="90">
@@ -15875,7 +15877,7 @@
       </c>
       <c r="M38" s="90"/>
       <c r="N38" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y38</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y39</f>
         <v>1529898.596310691</v>
       </c>
       <c r="O38" s="90">
@@ -15939,7 +15941,7 @@
       </c>
       <c r="M39" s="90"/>
       <c r="N39" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y39</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y40</f>
         <v>1421992.1019560299</v>
       </c>
       <c r="O39" s="90">
@@ -16003,7 +16005,7 @@
       </c>
       <c r="M40" s="90"/>
       <c r="N40" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y40</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y41</f>
         <v>1258909.455121527</v>
       </c>
       <c r="O40" s="90">
@@ -16067,7 +16069,7 @@
       </c>
       <c r="M41" s="90"/>
       <c r="N41" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y41</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y42</f>
         <v>1287067.1504054759</v>
       </c>
       <c r="O41" s="90">
@@ -16131,7 +16133,7 @@
       </c>
       <c r="M42" s="90"/>
       <c r="N42" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y42</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y43</f>
         <v>1241977.1139729684</v>
       </c>
       <c r="O42" s="90">
@@ -16195,7 +16197,7 @@
       </c>
       <c r="M43" s="90"/>
       <c r="N43" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y43</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y44</f>
         <v>1249740.1834886014</v>
       </c>
       <c r="O43" s="90">
@@ -16259,7 +16261,7 @@
       </c>
       <c r="M44" s="90"/>
       <c r="N44" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y44</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y45</f>
         <v>1283042.2590823132</v>
       </c>
       <c r="O44" s="90">
@@ -16323,7 +16325,7 @@
       </c>
       <c r="M45" s="90"/>
       <c r="N45" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y45</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y46</f>
         <v>1222802.5658147226</v>
       </c>
       <c r="O45" s="90">
@@ -16387,7 +16389,7 @@
       </c>
       <c r="M46" s="90"/>
       <c r="N46" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!Y46</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!Y47</f>
         <v>1203721.2219537096</v>
       </c>
       <c r="O46" s="90">
@@ -16435,32 +16437,32 @@
       </c>
       <c r="I47" s="90">
         <f>'Prod. Gas Bumi, LNG, LPG'!X23</f>
-        <v>0</v>
+        <v>379585.76633215381</v>
       </c>
       <c r="J47" s="90">
         <f t="shared" ref="J47" si="31">F47+I47</f>
-        <v>1674032.2176460354</v>
+        <v>2053617.9839781891</v>
       </c>
       <c r="K47" s="90">
         <f>'Prod. Gas Bumi, LNG, LPG'!V23</f>
-        <v>0</v>
+        <v>22.598423342421253</v>
       </c>
       <c r="L47" s="90">
         <f>'Prod. Gas Bumi, LNG, LPG'!W23</f>
-        <v>0</v>
+        <v>282588.73454260686</v>
       </c>
       <c r="M47" s="90"/>
       <c r="N47" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!U47</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!U48</f>
         <v>512517000</v>
       </c>
       <c r="O47" s="90">
         <f t="shared" ref="O47" si="32">K47+N47</f>
-        <v>512517000</v>
+        <v>512517022.59842336</v>
       </c>
       <c r="P47" s="90">
         <f t="shared" ref="P47" si="33">J47+N47+K47-L47</f>
-        <v>514191032.21764606</v>
+        <v>514288051.84785897</v>
       </c>
       <c r="Q47" s="85">
         <f>AVERAGE(Q28:Q46)</f>
@@ -16495,7 +16497,7 @@
         <v>251143838</v>
       </c>
       <c r="I48" s="90">
-        <f>'Prod. Gas Bumi, LNG, LPG'!X24</f>
+        <f>'Prod. Gas Bumi, LNG, LPG'!X25</f>
         <v>0</v>
       </c>
       <c r="J48" s="85"/>
@@ -16508,28 +16510,28 @@
       <c r="Q48" s="85"/>
     </row>
     <row r="50" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="140" t="s">
+      <c r="A50" s="139" t="s">
         <v>207</v>
       </c>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140" t="s">
+      <c r="B50" s="139"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139" t="s">
         <v>208</v>
       </c>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140" t="s">
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="139"/>
+      <c r="P50" s="139"/>
       <c r="Q50" s="72">
         <v>0.17960000000000001</v>
       </c>
@@ -17696,10 +17698,10 @@
       <c r="P72" s="3"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G77" s="138" t="s">
+      <c r="G77" s="137" t="s">
         <v>382</v>
       </c>
-      <c r="H77" s="139"/>
+      <c r="H77" s="138"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
@@ -18417,33 +18419,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="176" t="s">
+      <c r="C1" s="175" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="175" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="176" t="s">
+      <c r="F1" s="175" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="176" t="s">
+      <c r="G1" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="175"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B2" s="176"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
       <c r="G2" t="s">
         <v>159</v>
       </c>
@@ -19258,60 +19260,60 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="140" t="s">
+      <c r="A3" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="140" t="s">
+      <c r="C3" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="140" t="s">
+      <c r="D3" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="150" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="158" t="s">
+      <c r="L3" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="139" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="2" t="s">
         <v>6</v>
       </c>
@@ -19327,28 +19329,28 @@
       <c r="J4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="150"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="140"/>
+      <c r="K4" s="157"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="139"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="148" t="s">
+      <c r="A5" s="139"/>
+      <c r="B5" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="180" t="s">
+      <c r="F5" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="182"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
       <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
@@ -20124,97 +20126,97 @@
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26" s="148" t="s">
+      <c r="A26" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
-      <c r="K26" s="148"/>
-      <c r="L26" s="148"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
       <c r="M26" s="3"/>
       <c r="AC26" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="140" t="s">
+      <c r="A27" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="140" t="s">
+      <c r="D27" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="146" t="s">
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="L27" s="158" t="s">
+      <c r="L27" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="158" t="s">
+      <c r="M27" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="158" t="s">
+      <c r="N27" s="151" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="150" t="s">
+      <c r="P27" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="150" t="s">
+      <c r="Q27" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="R27" s="150" t="s">
+      <c r="R27" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="S27" s="150" t="s">
+      <c r="S27" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="150" t="s">
+      <c r="T27" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="U27" s="140" t="s">
+      <c r="U27" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="162" t="s">
+      <c r="V27" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="W27" s="162" t="s">
+      <c r="W27" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="X27" s="162" t="s">
+      <c r="X27" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="Y27" s="162" t="s">
+      <c r="Y27" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="Z27" s="162" t="s">
+      <c r="Z27" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="AA27" s="161" t="s">
+      <c r="AA27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="AC27" s="150" t="s">
+      <c r="AC27" s="157" t="s">
         <v>2</v>
       </c>
       <c r="AE27" s="20" t="s">
@@ -20234,11 +20236,11 @@
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
       <c r="F28" s="2" t="s">
         <v>6</v>
       </c>
@@ -20254,23 +20256,23 @@
       <c r="J28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="147"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="P28" s="150"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
-      <c r="U28" s="140"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="161"/>
-      <c r="AC28" s="150"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="152"/>
+      <c r="N28" s="152"/>
+      <c r="P28" s="157"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="157"/>
+      <c r="S28" s="157"/>
+      <c r="T28" s="157"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="146"/>
+      <c r="AC28" s="157"/>
       <c r="AE28" s="20"/>
       <c r="AG28" s="20"/>
       <c r="AI28" s="20"/>
@@ -20278,38 +20280,38 @@
       <c r="AL28" s="2"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A29" s="140"/>
-      <c r="B29" s="150" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="150"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="150"/>
-      <c r="P29" s="140" t="s">
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="157"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="157"/>
+      <c r="L29" s="157"/>
+      <c r="M29" s="157"/>
+      <c r="N29" s="157"/>
+      <c r="P29" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="140"/>
-      <c r="R29" s="140"/>
-      <c r="S29" s="140"/>
-      <c r="T29" s="140"/>
-      <c r="U29" s="140"/>
-      <c r="V29" s="161" t="s">
+      <c r="Q29" s="139"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="W29" s="161"/>
-      <c r="X29" s="161"/>
-      <c r="Y29" s="161"/>
-      <c r="Z29" s="161"/>
-      <c r="AA29" s="161"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+      <c r="AA29" s="146"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -22744,45 +22746,45 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="148" t="s">
+      <c r="A51" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="148"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="140" t="s">
+      <c r="A52" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="140" t="s">
+      <c r="C52" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="140" t="s">
+      <c r="D52" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="177" t="s">
+      <c r="E52" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="179"/>
-      <c r="I52" s="140" t="s">
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="181"/>
+      <c r="I52" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="J52" s="140" t="s">
+      <c r="J52" s="139" t="s">
         <v>12</v>
       </c>
       <c r="K52" s="3"/>
@@ -22790,10 +22792,10 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="140"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="139"/>
+      <c r="D53" s="139"/>
       <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
@@ -22806,8 +22808,8 @@
       <c r="H53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="140"/>
-      <c r="J53" s="140"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -23166,21 +23168,23 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AC27:AC28"/>
-    <mergeCell ref="X27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="Z27:Z28"/>
-    <mergeCell ref="AA27:AA28"/>
-    <mergeCell ref="V29:AA29"/>
-    <mergeCell ref="P29:U29"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="V27:V28"/>
-    <mergeCell ref="W27:W28"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="S27:S28"/>
-    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="A51:M51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="D52:D53"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="M27:M28"/>
@@ -23196,23 +23200,21 @@
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="A51:M51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="P29:U29"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="AC27:AC28"/>
+    <mergeCell ref="X27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="AA27:AA28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23245,15 +23247,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="N2" t="s">
         <v>102</v>
       </c>
@@ -23714,38 +23716,38 @@
       </c>
     </row>
     <row r="17" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="148" t="s">
+      <c r="B17" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
       <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c r="N17" s="150" t="s">
+      <c r="N17" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="150" t="s">
+      <c r="O17" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="150" t="s">
+      <c r="P17" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="Q17" s="150" t="s">
+      <c r="Q17" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="R17" s="150" t="s">
+      <c r="R17" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="S17" s="140" t="s">
+      <c r="S17" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="U17" s="150" t="s">
+      <c r="U17" s="157" t="s">
         <v>2</v>
       </c>
       <c r="W17" s="20" t="s">
@@ -23792,13 +23794,13 @@
       <c r="K18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="140"/>
-      <c r="U18" s="150"/>
+      <c r="N18" s="157"/>
+      <c r="O18" s="157"/>
+      <c r="P18" s="157"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="157"/>
+      <c r="S18" s="139"/>
+      <c r="U18" s="157"/>
       <c r="W18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="AA18" s="20"/>
@@ -25507,14 +25509,14 @@
       </c>
     </row>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B39" s="148" t="s">
+      <c r="B39" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -25798,33 +25800,33 @@
       </c>
     </row>
     <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="M2" s="150" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="144"/>
+      <c r="M2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="150" t="s">
+      <c r="N2" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="150" t="s">
+      <c r="O2" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="150" t="s">
+      <c r="Q2" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="140" t="s">
+      <c r="R2" s="139" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="20" t="s">
@@ -25877,12 +25879,12 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="140"/>
+      <c r="M3" s="157"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="157"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="139"/>
       <c r="T3" s="20"/>
       <c r="V3" s="20"/>
       <c r="X3" s="20"/>
@@ -27450,56 +27452,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="140" t="s">
+      <c r="C3" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
@@ -27542,29 +27544,29 @@
       <c r="R4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="140"/>
+      <c r="S4" s="139"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="140"/>
+      <c r="C5" s="139"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="140"/>
-      <c r="O5" s="140"/>
-      <c r="P5" s="140"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="140"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="139"/>
+      <c r="L5" s="139"/>
+      <c r="M5" s="139"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="139"/>
+      <c r="P5" s="139"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="139"/>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
@@ -28153,42 +28155,42 @@
       </c>
     </row>
     <row r="18" spans="3:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="148"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="148"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="V18" s="150" t="s">
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="V18" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="W18" s="150" t="s">
+      <c r="W18" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="X18" s="150" t="s">
+      <c r="X18" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="Y18" s="150" t="s">
+      <c r="Y18" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="150" t="s">
+      <c r="Z18" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="AA18" s="140" t="s">
+      <c r="AA18" s="139" t="s">
         <v>20</v>
       </c>
       <c r="AC18" s="20" t="s">
@@ -28211,40 +28213,40 @@
       </c>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C19" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="140" t="s">
+      <c r="C19" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="140" t="s">
+      <c r="E19" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140" t="s">
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="140" t="s">
+      <c r="T19" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="150"/>
-      <c r="W19" s="150"/>
-      <c r="X19" s="150"/>
-      <c r="Y19" s="150"/>
-      <c r="Z19" s="150"/>
-      <c r="AA19" s="140"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="157"/>
+      <c r="X19" s="157"/>
+      <c r="Y19" s="157"/>
+      <c r="Z19" s="157"/>
+      <c r="AA19" s="139"/>
       <c r="AC19" s="20"/>
       <c r="AE19" s="20"/>
       <c r="AG19" s="20"/>
@@ -28253,8 +28255,8 @@
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
@@ -28297,16 +28299,16 @@
       <c r="R20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S20" s="140"/>
-      <c r="T20" s="140"/>
-      <c r="V20" s="140" t="s">
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="V20" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="W20" s="140"/>
-      <c r="X20" s="140"/>
-      <c r="Y20" s="140"/>
-      <c r="Z20" s="140"/>
-      <c r="AA20" s="140"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
       <c r="AC20" s="2" t="s">
         <v>101</v>
       </c>
@@ -30365,26 +30367,26 @@
       </c>
     </row>
     <row r="41" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C41" s="148" t="s">
+      <c r="C41" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
-      <c r="K41" s="148"/>
-      <c r="L41" s="148"/>
-      <c r="M41" s="148"/>
-      <c r="N41" s="148"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="148"/>
-      <c r="R41" s="148"/>
-      <c r="S41" s="148"/>
-      <c r="T41" s="148"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="153"/>
+      <c r="M41" s="153"/>
+      <c r="N41" s="153"/>
+      <c r="O41" s="153"/>
+      <c r="P41" s="153"/>
+      <c r="Q41" s="153"/>
+      <c r="R41" s="153"/>
+      <c r="S41" s="153"/>
+      <c r="T41" s="153"/>
       <c r="W41" t="s">
         <v>102</v>
       </c>
@@ -30447,32 +30449,32 @@
       </c>
     </row>
     <row r="42" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C42" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="140" t="s">
+      <c r="C42" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="140" t="s">
+      <c r="E42" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="140"/>
-      <c r="Q42" s="140"/>
-      <c r="R42" s="140"/>
-      <c r="S42" s="140" t="s">
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="139"/>
+      <c r="P42" s="139"/>
+      <c r="Q42" s="139"/>
+      <c r="R42" s="139"/>
+      <c r="S42" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="T42" s="140" t="s">
+      <c r="T42" s="139" t="s">
         <v>20</v>
       </c>
       <c r="W42" t="s">
@@ -30537,8 +30539,8 @@
       </c>
     </row>
     <row r="43" spans="3:42" x14ac:dyDescent="0.25">
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
+      <c r="C43" s="139"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="2" t="s">
         <v>30</v>
       </c>
@@ -30581,8 +30583,8 @@
       <c r="R43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="140"/>
-      <c r="T43" s="140"/>
+      <c r="S43" s="139"/>
+      <c r="T43" s="139"/>
       <c r="W43" t="s">
         <v>104</v>
       </c>
@@ -31289,6 +31291,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="C18:T18"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:R3"/>
+    <mergeCell ref="E5:R5"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:R19"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C41:T41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:R42"/>
+    <mergeCell ref="S42:S43"/>
+    <mergeCell ref="T42:T43"/>
     <mergeCell ref="AA18:AA19"/>
     <mergeCell ref="V20:AA20"/>
     <mergeCell ref="V18:V19"/>
@@ -31296,24 +31316,6 @@
     <mergeCell ref="X18:X19"/>
     <mergeCell ref="Y18:Y19"/>
     <mergeCell ref="Z18:Z19"/>
-    <mergeCell ref="C41:T41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:R42"/>
-    <mergeCell ref="S42:S43"/>
-    <mergeCell ref="T42:T43"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:R19"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="C18:T18"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:R3"/>
-    <mergeCell ref="E5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31335,65 +31337,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="J1" s="150" t="s">
+      <c r="J1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="150" t="s">
+      <c r="K1" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="150" t="s">
+      <c r="L1" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="M1" s="150" t="s">
+      <c r="M1" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="150" t="s">
+      <c r="N1" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="140" t="s">
+      <c r="O1" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="150" t="s">
+      <c r="Q1" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="150" t="s">
+      <c r="R1" s="157" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="150" t="s">
+      <c r="S1" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="150" t="s">
+      <c r="T1" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="150" t="s">
+      <c r="U1" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="140" t="s">
+      <c r="V1" s="139" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="140"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="140"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="139"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="139"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -31417,22 +31419,22 @@
       <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="K3" s="140"/>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="Q3" s="140" t="s">
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="Q3" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
@@ -32568,102 +32570,102 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="153" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="153"/>
+      <c r="W2" s="153"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="140" t="s">
+      <c r="C3" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="140" t="s">
+      <c r="H3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="140" t="s">
+      <c r="J3" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="140" t="s">
+      <c r="K3" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="140" t="s">
+      <c r="L3" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="140" t="s">
+      <c r="M3" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="140" t="s">
+      <c r="N3" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="140" t="s">
+      <c r="O3" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140" t="s">
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="140" t="s">
+      <c r="T3" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="140" t="s">
+      <c r="U3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="140" t="s">
+      <c r="V3" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="150" t="s">
+      <c r="W3" s="157" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
       <c r="O4" s="2" t="s">
         <v>47</v>
       </c>
@@ -32676,11 +32678,11 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="140"/>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
-      <c r="W4" s="150"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="157"/>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" s="6">
@@ -33399,6 +33401,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="C2:W2"/>
     <mergeCell ref="L3:L4"/>
@@ -33415,9 +33420,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33443,24 +33445,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="148" t="s">
+      <c r="C2" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="148" t="s">
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="149" t="s">
+      <c r="K2" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="159"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
@@ -34080,33 +34082,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="140" t="s">
+      <c r="A2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="S2" s="177" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="S2" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="179"/>
+      <c r="T2" s="180"/>
+      <c r="U2" s="180"/>
+      <c r="V2" s="181"/>
       <c r="X2" t="s">
         <v>107</v>
       </c>
@@ -34169,7 +34171,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="140"/>
+      <c r="A3" s="139"/>
       <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
@@ -34292,31 +34294,31 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140" t="s">
+      <c r="A4" s="139"/>
+      <c r="B4" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="S4" s="140" t="s">
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="S4" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="140"/>
-      <c r="U4" s="140"/>
-      <c r="V4" s="140"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
       <c r="X4" t="s">
         <v>109</v>
       </c>
@@ -35769,82 +35771,82 @@
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="140" t="s">
+      <c r="A25" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="140"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="140" t="s">
+      <c r="A26" s="139"/>
+      <c r="B26" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="139" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="140" t="s">
+      <c r="E26" s="139" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="140" t="s">
+      <c r="F26" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140" t="s">
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="K26" s="140" t="s">
+      <c r="K26" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="L26" s="140" t="s">
+      <c r="L26" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="M26" s="140" t="s">
+      <c r="M26" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="140" t="s">
+      <c r="N26" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="140" t="s">
+      <c r="P26" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="Q26" s="140" t="s">
+      <c r="Q26" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="140" t="s">
+      <c r="R26" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="140" t="s">
+      <c r="S26" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="T26" s="150" t="s">
+      <c r="T26" s="157" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="2" t="s">
         <v>2</v>
       </c>
@@ -35857,42 +35859,42 @@
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="150"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="157"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140" t="s">
+      <c r="A28" s="139"/>
+      <c r="B28" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="140"/>
-      <c r="L28" s="140"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="140"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="140" t="s">
+      <c r="P28" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="Q28" s="140"/>
-      <c r="R28" s="140"/>
-      <c r="S28" s="140"/>
-      <c r="T28" s="140"/>
+      <c r="Q28" s="139"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -37130,47 +37132,47 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="183" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="140" t="s">
+      <c r="A50" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140" t="s">
+      <c r="C50" s="139"/>
+      <c r="D50" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="140"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="183"/>
-      <c r="B51" s="140" t="s">
+      <c r="A51" s="182"/>
+      <c r="B51" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="140" t="s">
+      <c r="C51" s="139" t="s">
         <v>86</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="140" t="s">
+      <c r="F51" s="139" t="s">
         <v>89</v>
       </c>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140" t="s">
+      <c r="G51" s="139"/>
+      <c r="H51" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="140"/>
+      <c r="I51" s="139"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="184"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="139"/>
+      <c r="C52" s="139"/>
       <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
@@ -37550,7 +37552,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="148" t="s">
+      <c r="A74" s="153" t="s">
         <v>0</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -37585,7 +37587,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="148"/>
+      <c r="A75" s="153"/>
       <c r="B75" s="3" t="s">
         <v>115</v>
       </c>
@@ -37601,13 +37603,13 @@
       <c r="F75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="149" t="s">
+      <c r="H75" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="I75" s="151"/>
-      <c r="J75" s="151"/>
-      <c r="K75" s="151"/>
-      <c r="L75" s="152"/>
+      <c r="I75" s="158"/>
+      <c r="J75" s="158"/>
+      <c r="K75" s="158"/>
+      <c r="L75" s="159"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
@@ -38645,14 +38647,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B28:N28"/>
     <mergeCell ref="A2:A4"/>
@@ -38669,15 +38672,14 @@
     <mergeCell ref="K26:K27"/>
     <mergeCell ref="L26:L27"/>
     <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38701,7 +38703,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="139" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -38751,26 +38753,26 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="140"/>
-      <c r="C2" s="140" t="s">
+      <c r="B2" s="139"/>
+      <c r="C2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="M2" s="148" t="s">
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="M2" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="148"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="153"/>
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="17">
@@ -39736,10 +39738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399AD80-C310-4377-82C8-2203356705DA}">
-  <dimension ref="A1:Y72"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView topLeftCell="I48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52:P72"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39766,93 +39768,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="160" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="143" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="142" t="s">
         <v>225</v>
       </c>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="142"/>
       <c r="O1" s="132"/>
-      <c r="R1" s="148" t="s">
+      <c r="R1" s="153" t="s">
         <v>239</v>
       </c>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="156" t="s">
+      <c r="A2" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="157" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="G2" s="151" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="143" t="s">
+      <c r="H2" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="161" t="s">
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="161" t="s">
+      <c r="M2" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="N2" s="162" t="s">
+      <c r="N2" s="147" t="s">
         <v>228</v>
       </c>
       <c r="O2" s="133" t="s">
         <v>420</v>
       </c>
-      <c r="R2" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="148" t="s">
+      <c r="R2" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="153" t="s">
         <v>197</v>
       </c>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="140" t="s">
+      <c r="T2" s="153"/>
+      <c r="U2" s="153"/>
+      <c r="V2" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="W2" s="140" t="s">
+      <c r="W2" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="X2" s="146" t="s">
+      <c r="X2" s="154" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="157"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="128" t="s">
         <v>222</v>
       </c>
@@ -39862,10 +39864,10 @@
       <c r="D3" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="161"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="25" t="s">
         <v>222</v>
       </c>
@@ -39875,9 +39877,9 @@
       <c r="K3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="162"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="146"/>
+      <c r="N3" s="147"/>
       <c r="O3" s="133"/>
       <c r="P3" s="32">
         <v>8.5245999999999995</v>
@@ -39885,7 +39887,7 @@
       <c r="Q3" t="s">
         <v>226</v>
       </c>
-      <c r="R3" s="140"/>
+      <c r="R3" s="139"/>
       <c r="S3" s="3" t="s">
         <v>222</v>
       </c>
@@ -39895,9 +39897,9 @@
       <c r="U3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="147"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="155"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
@@ -40007,7 +40009,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G22" si="6">(B5+C5)-E5</f>
+        <f t="shared" ref="G5:G24" si="6">(B5+C5)-E5</f>
         <v>763749</v>
       </c>
       <c r="H5" s="66">
@@ -41168,15 +41170,15 @@
         <v>2015</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" ref="I19:I22" si="15">B19*$P$3</f>
+        <f t="shared" ref="I19:I23" si="15">B19*$P$3</f>
         <v>13908728.835399998</v>
       </c>
       <c r="J19" s="31">
-        <f t="shared" ref="J19:J22" si="16">C19*$P$3</f>
+        <f t="shared" ref="J19:J23" si="16">C19*$P$3</f>
         <v>5760992.8767999997</v>
       </c>
       <c r="K19" s="31">
-        <f t="shared" ref="K19:K22" si="17">D19*$P$3</f>
+        <f t="shared" ref="K19:K23" si="17">D19*$P$3</f>
         <v>19669721.712199997</v>
       </c>
       <c r="L19" s="31">
@@ -41488,3147 +41490,3242 @@
       <c r="F23" s="84">
         <v>5714693</v>
       </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="4">
+        <f t="shared" si="6"/>
+        <v>1961537</v>
+      </c>
+      <c r="H23" s="66">
+        <v>2019</v>
+      </c>
+      <c r="I23" s="31">
+        <f t="shared" si="15"/>
+        <v>9720575.8061999995</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" si="16"/>
+        <v>7004638.2461999999</v>
+      </c>
+      <c r="K23" s="31">
+        <f t="shared" si="17"/>
+        <v>16725214.052399999</v>
+      </c>
+      <c r="L23" s="31">
+        <f t="shared" ref="L23" si="26">E23*$P$3</f>
+        <v>3895.7421999999997</v>
+      </c>
+      <c r="M23" s="31">
+        <f t="shared" ref="M23" si="27">F23*$P$3</f>
+        <v>48715471.947799996</v>
+      </c>
+      <c r="N23" s="31">
+        <f t="shared" ref="N23" si="28">(I23+J23)-L23+M23</f>
+        <v>65436790.257999994</v>
+      </c>
+      <c r="O23" s="31">
+        <f t="shared" ref="O23" si="29">M23/N23</f>
+        <v>0.74446609859266855</v>
+      </c>
       <c r="R23" s="64">
         <v>2019</v>
       </c>
       <c r="S23" s="9">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>56387.121098671618</v>
       </c>
       <c r="T23" s="9">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>40632.509114217763</v>
       </c>
       <c r="U23" s="9">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>97019.630212889373</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>22.598423342421253</v>
       </c>
       <c r="W23" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>282588.73454260686</v>
       </c>
       <c r="X23" s="9">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>379585.76633215381</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="G24" s="134">
-        <f>E28*P5</f>
+      <c r="A24" s="184">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="185">
+        <v>1063499</v>
+      </c>
+      <c r="C24" s="185">
+        <v>858153</v>
+      </c>
+      <c r="D24" s="185">
+        <v>1921652</v>
+      </c>
+      <c r="E24" s="184">
+        <v>281</v>
+      </c>
+      <c r="F24" s="185">
+        <v>6396962</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="6"/>
+        <v>1921371</v>
+      </c>
+      <c r="H24" s="66">
+        <v>2020</v>
+      </c>
+      <c r="I24" s="31">
+        <f t="shared" ref="I24" si="30">B24*$P$3</f>
+        <v>9065903.5753999986</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" ref="J24" si="31">C24*$P$3</f>
+        <v>7315411.0637999997</v>
+      </c>
+      <c r="K24" s="31">
+        <f t="shared" ref="K24" si="32">D24*$P$3</f>
+        <v>16381314.639199998</v>
+      </c>
+      <c r="L24" s="31">
+        <f t="shared" ref="L24" si="33">E24*$P$3</f>
+        <v>2395.4125999999997</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" ref="M24" si="34">F24*$P$3</f>
+        <v>54531542.265199997</v>
+      </c>
+      <c r="N24" s="31">
+        <f t="shared" ref="N24" si="35">(I24+J24)-L24+M24</f>
+        <v>70910461.491799995</v>
+      </c>
+      <c r="O24" s="31">
+        <f t="shared" ref="O24" si="36">M24/N24</f>
+        <v>0.76901970623200588</v>
+      </c>
+      <c r="R24" s="186"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G25" s="134">
+        <f>E29*P5</f>
         <v>429447452.20999998</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="J24" s="129" t="s">
+      <c r="H25" s="1"/>
+      <c r="J25" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="129">
+      <c r="K25" s="129">
         <v>172.39</v>
       </c>
-      <c r="L24" s="129" t="s">
+      <c r="L25" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N25" t="s">
         <v>398</v>
       </c>
-      <c r="P24" s="63">
+      <c r="P25" s="63">
         <v>5799000</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q25" t="s">
         <v>397</v>
       </c>
-      <c r="R24" s="63">
-        <f>P24/1000000</f>
+      <c r="R25" s="63">
+        <f>P25/1000000</f>
         <v>5.7990000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="150" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="157" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="150" t="s">
+      <c r="C26" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D25" s="150" t="s">
+      <c r="D26" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="E25" s="150" t="s">
+      <c r="E26" s="157" t="s">
         <v>261</v>
       </c>
-      <c r="F25" s="150" t="s">
+      <c r="F26" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="149" t="s">
+      <c r="G26" s="156" t="s">
         <v>257</v>
       </c>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="151"/>
-      <c r="N25" s="151"/>
-      <c r="O25" s="151"/>
-      <c r="P25" s="151"/>
-      <c r="Q25" s="151"/>
-      <c r="R25" s="152"/>
-      <c r="W25" t="s">
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="158"/>
+      <c r="L26" s="158"/>
+      <c r="M26" s="158"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="158"/>
+      <c r="P26" s="158"/>
+      <c r="Q26" s="158"/>
+      <c r="R26" s="159"/>
+      <c r="W26" t="s">
         <v>258</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X26" t="s">
         <v>275</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y26" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="3" t="s">
+    <row r="27" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="139"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N26" s="163" t="s">
+      <c r="N27" s="148" t="s">
         <v>391</v>
       </c>
-      <c r="O26" s="164"/>
-      <c r="P26" s="148" t="s">
+      <c r="O27" s="149"/>
+      <c r="P27" s="153" t="s">
         <v>392</v>
       </c>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="149"/>
-      <c r="S26" s="127" t="s">
+      <c r="Q27" s="153"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="127" t="s">
         <v>393</v>
       </c>
-      <c r="T26" s="160" t="s">
+      <c r="T27" s="145" t="s">
         <v>394</v>
       </c>
-      <c r="U26" s="160"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="148" t="s">
+      <c r="U27" s="145"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="139"/>
+      <c r="B28" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="123" t="s">
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
+      <c r="K28" s="153"/>
+      <c r="L28" s="153"/>
+      <c r="M28" s="153"/>
+      <c r="N28" s="153"/>
+      <c r="O28" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R27" s="124" t="s">
+      <c r="R28" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="127" t="s">
+      <c r="S28" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="T27" s="127" t="s">
+      <c r="T28" s="127" t="s">
         <v>395</v>
       </c>
-      <c r="U27" s="127" t="s">
+      <c r="U28" s="127" t="s">
         <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B28" s="4">
-        <v>2901302</v>
-      </c>
-      <c r="C28" s="4">
-        <v>237280</v>
-      </c>
-      <c r="D28" s="4">
-        <v>172883</v>
-      </c>
-      <c r="E28" s="75">
-        <f>B28-D28-C28</f>
-        <v>2491139</v>
-      </c>
-      <c r="F28" s="4">
-        <v>157238</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1584365</v>
-      </c>
-      <c r="H28" s="4">
-        <v>31832</v>
-      </c>
-      <c r="I28" s="4">
-        <v>32277</v>
-      </c>
-      <c r="J28" s="4">
-        <v>1194</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
-        <v>483438</v>
-      </c>
-      <c r="M28" s="4">
-        <v>223564</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <f>N28*$K$24</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>27321020</v>
-      </c>
-      <c r="Q28" s="3">
-        <f>P28*$P$3</f>
-        <v>232900767.09199998</v>
-      </c>
-      <c r="R28" s="126">
-        <f t="shared" ref="R28:R35" si="26">Q28/$P$5</f>
-        <v>1351010.8886362319</v>
-      </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="W28" s="76">
-        <f t="shared" ref="W28:W46" si="27">SUM(G28:M28)</f>
-        <v>2356670</v>
-      </c>
-      <c r="X28" s="74">
-        <f t="shared" ref="X28:X46" si="28">W28+F28</f>
-        <v>2513908</v>
-      </c>
-      <c r="Y28" s="74">
-        <f>R28+N28</f>
-        <v>1351010.8886362319</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B29" s="4">
-        <v>2806084</v>
+        <v>2901302</v>
       </c>
       <c r="C29" s="4">
-        <v>219191</v>
+        <v>237280</v>
       </c>
       <c r="D29" s="4">
-        <v>186380</v>
+        <v>172883</v>
       </c>
       <c r="E29" s="75">
-        <f t="shared" ref="E29:E48" si="29">B29-D29-C29</f>
-        <v>2400513</v>
+        <f>B29-D29-C29</f>
+        <v>2491139</v>
       </c>
       <c r="F29" s="4">
-        <v>152677</v>
+        <v>157238</v>
       </c>
       <c r="G29" s="4">
-        <v>1489935</v>
+        <v>1584365</v>
       </c>
       <c r="H29" s="4">
-        <v>12807</v>
+        <v>31832</v>
       </c>
       <c r="I29" s="4">
-        <v>29437</v>
+        <v>32277</v>
       </c>
       <c r="J29" s="4">
-        <v>1307</v>
+        <v>1194</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>455798</v>
+        <v>483438</v>
       </c>
       <c r="M29" s="4">
-        <v>254238</v>
-      </c>
-      <c r="N29" s="4">
-        <v>31967</v>
+        <v>223564</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" ref="O29:O48" si="30">N29*$K$24</f>
-        <v>5510791.1299999999</v>
+        <f>N29*$K$25</f>
+        <v>0</v>
       </c>
       <c r="P29" s="4">
-        <v>24343678</v>
+        <v>27321020</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" ref="Q29:Q35" si="31">P29*$P$3</f>
-        <v>207520117.4788</v>
+        <f>P29*$P$3</f>
+        <v>232900767.09199998</v>
       </c>
       <c r="R29" s="126">
-        <f t="shared" si="26"/>
-        <v>1203782.8034039098</v>
+        <f t="shared" ref="R29:R36" si="37">Q29/$P$5</f>
+        <v>1351010.8886362319</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="W29" s="76">
-        <f t="shared" si="27"/>
-        <v>2243522</v>
+        <f t="shared" ref="W29:W47" si="38">SUM(G29:M29)</f>
+        <v>2356670</v>
       </c>
       <c r="X29" s="74">
-        <f t="shared" si="28"/>
-        <v>2396199</v>
+        <f t="shared" ref="X29:X47" si="39">W29+F29</f>
+        <v>2513908</v>
       </c>
       <c r="Y29" s="74">
-        <f t="shared" ref="Y29:Y46" si="32">R29+N29</f>
-        <v>1235749.8034039098</v>
+        <f>R29+N29</f>
+        <v>1351010.8886362319</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B30" s="4">
-        <v>3036355</v>
+        <v>2806084</v>
       </c>
       <c r="C30" s="4">
-        <v>202875</v>
+        <v>219191</v>
       </c>
       <c r="D30" s="4">
-        <v>176585</v>
+        <v>186380</v>
       </c>
       <c r="E30" s="75">
-        <f t="shared" si="29"/>
-        <v>2656895</v>
+        <f t="shared" ref="E30:E49" si="40">B30-D30-C30</f>
+        <v>2400513</v>
       </c>
       <c r="F30" s="4">
-        <v>170089</v>
+        <v>152677</v>
       </c>
       <c r="G30" s="4">
-        <v>1656472</v>
+        <v>1489935</v>
       </c>
       <c r="H30" s="4">
-        <v>26901</v>
+        <v>12807</v>
       </c>
       <c r="I30" s="4">
-        <v>30879</v>
+        <v>29437</v>
       </c>
       <c r="J30" s="4">
-        <v>1447</v>
+        <v>1307</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>448261</v>
+        <v>455798</v>
       </c>
       <c r="M30" s="4">
-        <v>196300</v>
+        <v>254238</v>
       </c>
       <c r="N30" s="4">
-        <v>82619</v>
+        <v>31967</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="30"/>
-        <v>14242689.409999998</v>
+        <f t="shared" ref="O30:O49" si="41">N30*$K$25</f>
+        <v>5510791.1299999999</v>
       </c>
       <c r="P30" s="4">
-        <v>26184740</v>
+        <v>24343678</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="31"/>
-        <v>223214434.60399997</v>
+        <f t="shared" ref="Q30:Q36" si="42">P30*$P$3</f>
+        <v>207520117.4788</v>
       </c>
       <c r="R30" s="126">
-        <f t="shared" si="26"/>
-        <v>1294822.406195255</v>
+        <f t="shared" si="37"/>
+        <v>1203782.8034039098</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="W30" s="76">
-        <f t="shared" si="27"/>
-        <v>2360260</v>
+        <f t="shared" si="38"/>
+        <v>2243522</v>
       </c>
       <c r="X30" s="74">
-        <f t="shared" si="28"/>
-        <v>2530349</v>
+        <f t="shared" si="39"/>
+        <v>2396199</v>
       </c>
       <c r="Y30" s="74">
-        <f t="shared" si="32"/>
-        <v>1377441.406195255</v>
+        <f t="shared" ref="Y30:Y47" si="43">R30+N30</f>
+        <v>1235749.8034039098</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B31" s="4">
-        <v>3155243</v>
+        <v>3036355</v>
       </c>
       <c r="C31" s="4">
-        <v>228019</v>
+        <v>202875</v>
       </c>
       <c r="D31" s="4">
-        <v>148709</v>
+        <v>176585</v>
       </c>
       <c r="E31" s="75">
-        <f t="shared" si="29"/>
-        <v>2778515</v>
+        <f t="shared" si="40"/>
+        <v>2656895</v>
       </c>
       <c r="F31" s="4">
-        <v>168120</v>
+        <v>170089</v>
       </c>
       <c r="G31" s="4">
-        <v>1719127</v>
+        <v>1656472</v>
       </c>
       <c r="H31" s="4">
-        <v>24429</v>
+        <v>26901</v>
       </c>
       <c r="I31" s="4">
-        <v>22776</v>
+        <v>30879</v>
       </c>
       <c r="J31" s="4">
-        <v>1435</v>
+        <v>1447</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>500622</v>
+        <v>448261</v>
       </c>
       <c r="M31" s="4">
-        <v>187187</v>
+        <v>196300</v>
       </c>
       <c r="N31" s="4">
-        <v>126450</v>
+        <v>82619</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="30"/>
-        <v>21798715.5</v>
+        <f t="shared" si="41"/>
+        <v>14242689.409999998</v>
       </c>
       <c r="P31" s="4">
-        <v>26077500</v>
+        <v>26184740</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="31"/>
-        <v>222300256.5</v>
+        <f t="shared" si="42"/>
+        <v>223214434.60399997</v>
       </c>
       <c r="R31" s="126">
-        <f t="shared" si="26"/>
-        <v>1289519.4413829111</v>
+        <f t="shared" si="37"/>
+        <v>1294822.406195255</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="W31" s="76">
-        <f t="shared" si="27"/>
-        <v>2455576</v>
+        <f t="shared" si="38"/>
+        <v>2360260</v>
       </c>
       <c r="X31" s="74">
-        <f t="shared" si="28"/>
-        <v>2623696</v>
+        <f t="shared" si="39"/>
+        <v>2530349</v>
       </c>
       <c r="Y31" s="74">
-        <f t="shared" si="32"/>
-        <v>1415969.4413829111</v>
+        <f t="shared" si="43"/>
+        <v>1377441.406195255</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B32" s="4">
-        <v>3003945</v>
+        <v>3155243</v>
       </c>
       <c r="C32" s="4">
-        <v>206659</v>
+        <v>228019</v>
       </c>
       <c r="D32" s="4">
-        <v>134997</v>
+        <v>148709</v>
       </c>
       <c r="E32" s="75">
-        <f t="shared" si="29"/>
-        <v>2662289</v>
+        <f t="shared" si="40"/>
+        <v>2778515</v>
       </c>
       <c r="F32" s="4">
-        <v>151041</v>
+        <v>168120</v>
       </c>
       <c r="G32" s="4">
-        <v>1607970</v>
+        <v>1719127</v>
       </c>
       <c r="H32" s="4">
-        <v>28661</v>
+        <v>24429</v>
       </c>
       <c r="I32" s="4">
-        <v>20795</v>
+        <v>22776</v>
       </c>
       <c r="J32" s="4">
-        <v>1662</v>
+        <v>1435</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>473695</v>
+        <v>500622</v>
       </c>
       <c r="M32" s="4">
-        <v>169457</v>
+        <v>187187</v>
       </c>
       <c r="N32" s="4">
-        <v>163045</v>
+        <v>126450</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="30"/>
-        <v>28107327.549999997</v>
+        <f t="shared" si="41"/>
+        <v>21798715.5</v>
       </c>
       <c r="P32" s="4">
-        <v>25237867</v>
+        <v>26077500</v>
       </c>
       <c r="Q32" s="3">
-        <f t="shared" si="31"/>
-        <v>215142721.0282</v>
+        <f t="shared" si="42"/>
+        <v>222300256.5</v>
       </c>
       <c r="R32" s="126">
-        <f t="shared" si="26"/>
-        <v>1248000.0059643833</v>
+        <f t="shared" si="37"/>
+        <v>1289519.4413829111</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="W32" s="76">
-        <f t="shared" si="27"/>
-        <v>2302240</v>
+        <f t="shared" si="38"/>
+        <v>2455576</v>
       </c>
       <c r="X32" s="74">
-        <f t="shared" si="28"/>
-        <v>2453281</v>
+        <f t="shared" si="39"/>
+        <v>2623696</v>
       </c>
       <c r="Y32" s="74">
-        <f t="shared" si="32"/>
-        <v>1411045.0059643833</v>
+        <f t="shared" si="43"/>
+        <v>1415969.4413829111</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B33" s="4">
-        <v>2985341</v>
+        <v>3003945</v>
       </c>
       <c r="C33" s="4">
-        <v>199890</v>
+        <v>206659</v>
       </c>
       <c r="D33" s="4">
-        <v>107236</v>
+        <v>134997</v>
       </c>
       <c r="E33" s="75">
-        <f t="shared" si="29"/>
-        <v>2678215</v>
+        <f t="shared" si="40"/>
+        <v>2662289</v>
       </c>
       <c r="F33" s="4">
-        <v>139245</v>
+        <v>151041</v>
       </c>
       <c r="G33" s="4">
-        <v>1511335</v>
+        <v>1607970</v>
       </c>
       <c r="H33" s="4">
-        <v>24578</v>
+        <v>28661</v>
       </c>
       <c r="I33" s="4">
-        <v>16155</v>
+        <v>20795</v>
       </c>
       <c r="J33" s="4">
-        <v>1751</v>
+        <v>1662</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
       </c>
       <c r="L33" s="4">
-        <v>480382</v>
+        <v>473695</v>
       </c>
       <c r="M33" s="4">
-        <v>175222</v>
+        <v>169457</v>
       </c>
       <c r="N33" s="4">
-        <v>251303</v>
+        <v>163045</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="30"/>
-        <v>43322124.169999994</v>
+        <f t="shared" si="41"/>
+        <v>28107327.549999997</v>
       </c>
       <c r="P33" s="4">
-        <v>23676765</v>
+        <v>25237867</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="31"/>
-        <v>201834950.919</v>
+        <f t="shared" si="42"/>
+        <v>215142721.0282</v>
       </c>
       <c r="R33" s="126">
-        <f t="shared" si="26"/>
-        <v>1170804.2863217124</v>
+        <f t="shared" si="37"/>
+        <v>1248000.0059643833</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="W33" s="76">
-        <f t="shared" si="27"/>
-        <v>2209423</v>
+        <f t="shared" si="38"/>
+        <v>2302240</v>
       </c>
       <c r="X33" s="74">
-        <f t="shared" si="28"/>
-        <v>2348668</v>
+        <f t="shared" si="39"/>
+        <v>2453281</v>
       </c>
       <c r="Y33" s="74">
-        <f t="shared" si="32"/>
-        <v>1422107.2863217124</v>
+        <f t="shared" si="43"/>
+        <v>1411045.0059643833</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B34" s="4">
-        <v>2953997</v>
+        <v>2985341</v>
       </c>
       <c r="C34" s="4">
-        <v>185307</v>
+        <v>199890</v>
       </c>
       <c r="D34" s="4">
-        <v>112537</v>
+        <v>107236</v>
       </c>
       <c r="E34" s="75">
-        <f t="shared" si="29"/>
-        <v>2656153</v>
+        <f t="shared" si="40"/>
+        <v>2678215</v>
       </c>
       <c r="F34" s="4">
-        <v>142384</v>
+        <v>139245</v>
       </c>
       <c r="G34" s="4">
-        <v>1436093</v>
+        <v>1511335</v>
       </c>
       <c r="H34" s="4">
-        <v>32879</v>
+        <v>24578</v>
       </c>
       <c r="I34" s="4">
-        <v>15159</v>
+        <v>16155</v>
       </c>
       <c r="J34" s="4">
-        <v>1856</v>
+        <v>1751</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>461277</v>
+        <v>480382</v>
       </c>
       <c r="M34" s="4">
-        <v>169269</v>
+        <v>175222</v>
       </c>
       <c r="N34" s="4">
-        <v>257224</v>
+        <v>251303</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="30"/>
-        <v>44342845.359999999</v>
+        <f t="shared" si="41"/>
+        <v>43322124.169999994</v>
       </c>
       <c r="P34" s="4">
-        <v>22400121</v>
+        <v>23676765</v>
       </c>
       <c r="Q34" s="3">
-        <f t="shared" si="31"/>
-        <v>190952071.47659999</v>
+        <f t="shared" si="42"/>
+        <v>201834950.919</v>
       </c>
       <c r="R34" s="126">
-        <f t="shared" si="26"/>
-        <v>1107674.8736968501</v>
+        <f t="shared" si="37"/>
+        <v>1170804.2863217124</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="W34" s="76">
-        <f t="shared" si="27"/>
-        <v>2116533</v>
+        <f t="shared" si="38"/>
+        <v>2209423</v>
       </c>
       <c r="X34" s="74">
-        <f t="shared" si="28"/>
-        <v>2258917</v>
+        <f t="shared" si="39"/>
+        <v>2348668</v>
       </c>
       <c r="Y34" s="74">
-        <f t="shared" si="32"/>
-        <v>1364898.8736968501</v>
+        <f t="shared" si="43"/>
+        <v>1422107.2863217124</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B35" s="4">
-        <v>2805540</v>
+        <v>2953997</v>
       </c>
       <c r="C35" s="4">
-        <v>147303</v>
+        <v>185307</v>
       </c>
       <c r="D35" s="4">
-        <v>97912</v>
+        <v>112537</v>
       </c>
       <c r="E35" s="75">
-        <f t="shared" si="29"/>
-        <v>2560325</v>
+        <f t="shared" si="40"/>
+        <v>2656153</v>
       </c>
       <c r="F35" s="4">
-        <v>136952</v>
+        <v>142384</v>
       </c>
       <c r="G35" s="4">
-        <v>1300348</v>
+        <v>1436093</v>
       </c>
       <c r="H35" s="4">
-        <v>35096</v>
+        <v>32879</v>
       </c>
       <c r="I35" s="4">
-        <v>24972</v>
+        <v>15159</v>
       </c>
       <c r="J35" s="4">
-        <v>2263</v>
+        <v>1856</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>443889</v>
+        <v>461277</v>
       </c>
       <c r="M35" s="4">
-        <v>183329</v>
+        <v>169269</v>
       </c>
       <c r="N35" s="4">
-        <v>319397</v>
+        <v>257224</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="30"/>
-        <v>55060848.829999998</v>
+        <f t="shared" si="41"/>
+        <v>44342845.359999999</v>
       </c>
       <c r="P35" s="4">
-        <v>20851609</v>
+        <v>22400121</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="31"/>
-        <v>177751626.08139998</v>
+        <f t="shared" si="42"/>
+        <v>190952071.47659999</v>
       </c>
       <c r="R35" s="126">
-        <f t="shared" si="26"/>
-        <v>1031101.7233099367</v>
+        <f t="shared" si="37"/>
+        <v>1107674.8736968501</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="W35" s="76">
-        <f t="shared" si="27"/>
-        <v>1989897</v>
+        <f t="shared" si="38"/>
+        <v>2116533</v>
       </c>
       <c r="X35" s="74">
-        <f t="shared" si="28"/>
-        <v>2126849</v>
+        <f t="shared" si="39"/>
+        <v>2258917</v>
       </c>
       <c r="Y35" s="74">
-        <f t="shared" si="32"/>
-        <v>1350498.7233099367</v>
+        <f t="shared" si="43"/>
+        <v>1364898.8736968501</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B36" s="4">
-        <v>2885328</v>
+        <v>2805540</v>
       </c>
       <c r="C36" s="4">
-        <v>154890</v>
+        <v>147303</v>
       </c>
       <c r="D36" s="4">
-        <v>113701</v>
+        <v>97912</v>
       </c>
       <c r="E36" s="75">
-        <f t="shared" si="29"/>
-        <v>2616737</v>
+        <f t="shared" si="40"/>
+        <v>2560325</v>
       </c>
       <c r="F36" s="4">
-        <v>143252</v>
+        <v>136952</v>
       </c>
       <c r="G36" s="4">
-        <v>1270854</v>
+        <v>1300348</v>
       </c>
       <c r="H36" s="4">
-        <v>13196</v>
+        <v>35096</v>
       </c>
       <c r="I36" s="4">
-        <v>29727</v>
+        <v>24972</v>
       </c>
       <c r="J36" s="4">
-        <v>2718</v>
+        <v>2263</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="4">
-        <v>623616</v>
+        <v>443889</v>
       </c>
       <c r="M36" s="4">
-        <v>221236</v>
+        <v>183329</v>
       </c>
       <c r="N36" s="4">
-        <v>234964</v>
+        <v>319397</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="30"/>
-        <v>40505443.959999993</v>
+        <f t="shared" si="41"/>
+        <v>55060848.829999998</v>
       </c>
       <c r="P36" s="4">
-        <v>20579632</v>
+        <v>20851609</v>
       </c>
       <c r="Q36" s="3">
-        <f>P36*$P$3</f>
-        <v>175433130.9472</v>
+        <f t="shared" si="42"/>
+        <v>177751626.08139998</v>
       </c>
       <c r="R36" s="126">
-        <f>Q36/$P$5</f>
-        <v>1017652.5955519462</v>
+        <f t="shared" si="37"/>
+        <v>1031101.7233099367</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="130">
-        <f>Q36/$R$24</f>
-        <v>30252307.457699601</v>
-      </c>
+      <c r="U36" s="3"/>
       <c r="W36" s="76">
-        <f t="shared" si="27"/>
-        <v>2161347</v>
+        <f t="shared" si="38"/>
+        <v>1989897</v>
       </c>
       <c r="X36" s="74">
-        <f t="shared" si="28"/>
-        <v>2304599</v>
+        <f t="shared" si="39"/>
+        <v>2126849</v>
       </c>
       <c r="Y36" s="74">
-        <f t="shared" si="32"/>
-        <v>1252616.5955519462</v>
+        <f t="shared" si="43"/>
+        <v>1350498.7233099367</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B37" s="4">
-        <v>3060897</v>
+        <v>2885328</v>
       </c>
       <c r="C37" s="4">
-        <v>154800</v>
+        <v>154890</v>
       </c>
       <c r="D37" s="4">
-        <v>172922</v>
+        <v>113701</v>
       </c>
       <c r="E37" s="75">
-        <f t="shared" si="29"/>
-        <v>2733175</v>
+        <f t="shared" si="40"/>
+        <v>2616737</v>
       </c>
       <c r="F37" s="4">
-        <v>175024</v>
+        <v>143252</v>
       </c>
       <c r="G37" s="4">
-        <v>1221502</v>
+        <v>1270854</v>
       </c>
       <c r="H37" s="4">
-        <v>17806</v>
+        <v>13196</v>
       </c>
       <c r="I37" s="4">
-        <v>35566</v>
+        <v>29727</v>
       </c>
       <c r="J37" s="4">
-        <v>4790</v>
+        <v>2718</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>654428</v>
+        <v>623616</v>
       </c>
       <c r="M37" s="4">
-        <v>231521</v>
+        <v>221236</v>
       </c>
       <c r="N37" s="4">
-        <v>294109</v>
+        <v>234964</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="30"/>
-        <v>50701450.509999998</v>
+        <f t="shared" si="41"/>
+        <v>40505443.959999993</v>
       </c>
       <c r="P37" s="4">
-        <v>19932902</v>
+        <v>20579632</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" ref="Q37:Q46" si="33">P37*$P$3</f>
-        <v>169920016.3892</v>
+        <f>P37*$P$3</f>
+        <v>175433130.9472</v>
       </c>
       <c r="R37" s="126">
-        <f t="shared" ref="R37:R46" si="34">Q37/$P$5</f>
-        <v>985672.11780961778</v>
+        <f>Q37/$P$5</f>
+        <v>1017652.5955519462</v>
       </c>
       <c r="S37" s="3"/>
-      <c r="T37" s="4">
-        <v>1041319</v>
-      </c>
-      <c r="U37" s="3">
-        <f t="shared" ref="U37:U46" si="35">T37*1000</f>
-        <v>1041319000</v>
+      <c r="T37" s="3"/>
+      <c r="U37" s="130">
+        <f>Q37/$R$25</f>
+        <v>30252307.457699601</v>
       </c>
       <c r="W37" s="76">
-        <f t="shared" si="27"/>
-        <v>2165613</v>
+        <f t="shared" si="38"/>
+        <v>2161347</v>
       </c>
       <c r="X37" s="74">
-        <f t="shared" si="28"/>
-        <v>2340637</v>
+        <f t="shared" si="39"/>
+        <v>2304599</v>
       </c>
       <c r="Y37" s="74">
-        <f t="shared" si="32"/>
-        <v>1279781.1178096179</v>
+        <f t="shared" si="43"/>
+        <v>1252616.5955519462</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B38" s="4">
-        <v>3407592</v>
+        <v>3060897</v>
       </c>
       <c r="C38" s="4">
-        <v>174844</v>
+        <v>154800</v>
       </c>
       <c r="D38" s="4">
-        <v>184893</v>
+        <v>172922</v>
       </c>
       <c r="E38" s="75">
-        <f t="shared" si="29"/>
-        <v>3047855</v>
+        <f t="shared" si="40"/>
+        <v>2733175</v>
       </c>
       <c r="F38" s="4">
-        <v>205378</v>
+        <v>175024</v>
       </c>
       <c r="G38" s="4">
-        <v>1427917</v>
+        <v>1221502</v>
       </c>
       <c r="H38" s="4">
-        <v>20866</v>
+        <v>17806</v>
       </c>
       <c r="I38" s="4">
-        <v>34038</v>
+        <v>35566</v>
       </c>
       <c r="J38" s="4">
-        <v>6115</v>
+        <v>4790</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>635361</v>
+        <v>654428</v>
       </c>
       <c r="M38" s="4">
-        <v>269003</v>
+        <v>231521</v>
       </c>
       <c r="N38" s="4">
-        <v>333993</v>
+        <v>294109</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="30"/>
-        <v>57577053.269999996</v>
+        <f t="shared" si="41"/>
+        <v>50701450.509999998</v>
       </c>
       <c r="P38" s="4">
-        <v>24184380</v>
+        <v>19932902</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="33"/>
-        <v>206162165.748</v>
+        <f t="shared" ref="Q38:Q47" si="44">P38*$P$3</f>
+        <v>169920016.3892</v>
       </c>
       <c r="R38" s="126">
-        <f t="shared" si="34"/>
-        <v>1195905.596310691</v>
+        <f t="shared" ref="R38:R47" si="45">Q38/$P$5</f>
+        <v>985672.11780961778</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="4">
-        <v>1210843</v>
+        <v>1041319</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="35"/>
-        <v>1210843000</v>
+        <f t="shared" ref="U38:U47" si="46">T38*1000</f>
+        <v>1041319000</v>
       </c>
       <c r="W38" s="76">
-        <f t="shared" si="27"/>
-        <v>2393300</v>
+        <f t="shared" si="38"/>
+        <v>2165613</v>
       </c>
       <c r="X38" s="74">
-        <f t="shared" si="28"/>
-        <v>2598678</v>
+        <f t="shared" si="39"/>
+        <v>2340637</v>
       </c>
       <c r="Y38" s="74">
-        <f t="shared" si="32"/>
-        <v>1529898.596310691</v>
+        <f t="shared" si="43"/>
+        <v>1279781.1178096179</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B39" s="4">
-        <v>3256379</v>
+        <v>3407592</v>
       </c>
       <c r="C39" s="4">
-        <v>185997</v>
+        <v>174844</v>
       </c>
       <c r="D39" s="4">
-        <v>179460</v>
+        <v>184893</v>
       </c>
       <c r="E39" s="75">
-        <f t="shared" si="29"/>
-        <v>2890922</v>
+        <f t="shared" si="40"/>
+        <v>3047855</v>
       </c>
       <c r="F39" s="4">
-        <v>198463</v>
+        <v>205378</v>
       </c>
       <c r="G39" s="4">
-        <v>1293151</v>
+        <v>1427917</v>
       </c>
       <c r="H39" s="4">
-        <v>14289</v>
+        <v>20866</v>
       </c>
       <c r="I39" s="4">
-        <v>37476</v>
+        <v>34038</v>
       </c>
       <c r="J39" s="4">
-        <v>7896</v>
+        <v>6115</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
       </c>
       <c r="L39" s="4">
-        <v>666195</v>
+        <v>635361</v>
       </c>
       <c r="M39" s="4">
-        <v>248871</v>
+        <v>269003</v>
       </c>
       <c r="N39" s="4">
-        <v>335510</v>
+        <v>333993</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="30"/>
-        <v>57838568.899999999</v>
+        <f t="shared" si="41"/>
+        <v>57577053.269999996</v>
       </c>
       <c r="P39" s="4">
-        <v>21971547</v>
+        <v>24184380</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="33"/>
-        <v>187298649.5562</v>
+        <f t="shared" si="44"/>
+        <v>206162165.748</v>
       </c>
       <c r="R39" s="126">
-        <f t="shared" si="34"/>
-        <v>1086482.1019560299</v>
+        <f t="shared" si="45"/>
+        <v>1195905.596310691</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="4">
-        <v>1098238</v>
+        <v>1210843</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="35"/>
-        <v>1098238000</v>
+        <f t="shared" si="46"/>
+        <v>1210843000</v>
       </c>
       <c r="W39" s="76">
-        <f t="shared" si="27"/>
-        <v>2267878</v>
+        <f t="shared" si="38"/>
+        <v>2393300</v>
       </c>
       <c r="X39" s="74">
-        <f t="shared" si="28"/>
-        <v>2466341</v>
+        <f t="shared" si="39"/>
+        <v>2598678</v>
       </c>
       <c r="Y39" s="74">
-        <f t="shared" si="32"/>
-        <v>1421992.1019560299</v>
+        <f t="shared" si="43"/>
+        <v>1529898.596310691</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B40" s="4">
-        <v>3174639</v>
+        <v>3256379</v>
       </c>
       <c r="C40" s="4">
-        <v>191886</v>
+        <v>185997</v>
       </c>
       <c r="D40" s="4">
-        <v>230353</v>
+        <v>179460</v>
       </c>
       <c r="E40" s="75">
-        <f t="shared" si="29"/>
-        <v>2752400</v>
+        <f t="shared" si="40"/>
+        <v>2890922</v>
       </c>
       <c r="F40" s="4">
-        <v>189384</v>
+        <v>198463</v>
       </c>
       <c r="G40" s="4">
-        <v>1019569</v>
+        <v>1293151</v>
       </c>
       <c r="H40" s="4">
-        <v>28141</v>
+        <v>14289</v>
       </c>
       <c r="I40" s="4">
-        <v>39782</v>
+        <v>37476</v>
       </c>
       <c r="J40" s="4">
-        <v>9896</v>
+        <v>7896</v>
       </c>
       <c r="K40" s="4">
-        <v>37091</v>
+        <v>0</v>
       </c>
       <c r="L40" s="4">
-        <v>685751</v>
+        <v>666195</v>
       </c>
       <c r="M40" s="4">
-        <v>289424</v>
+        <v>248871</v>
       </c>
       <c r="N40" s="4">
-        <v>358325</v>
+        <v>335510</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="30"/>
-        <v>61771646.749999993</v>
+        <f t="shared" si="41"/>
+        <v>57838568.899999999</v>
       </c>
       <c r="P40" s="4">
-        <v>18212204</v>
+        <v>21971547</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="33"/>
-        <v>155251754.2184</v>
+        <f t="shared" si="44"/>
+        <v>187298649.5562</v>
       </c>
       <c r="R40" s="126">
-        <f t="shared" si="34"/>
-        <v>900584.45512152684</v>
+        <f t="shared" si="45"/>
+        <v>1086482.1019560299</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="4">
-        <v>949441</v>
+        <v>1098238</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="35"/>
-        <v>949441000</v>
+        <f t="shared" si="46"/>
+        <v>1098238000</v>
       </c>
       <c r="W40" s="76">
-        <f t="shared" si="27"/>
-        <v>2109654</v>
+        <f t="shared" si="38"/>
+        <v>2267878</v>
       </c>
       <c r="X40" s="74">
-        <f t="shared" si="28"/>
-        <v>2299038</v>
+        <f t="shared" si="39"/>
+        <v>2466341</v>
       </c>
       <c r="Y40" s="74">
-        <f t="shared" si="32"/>
-        <v>1258909.455121527</v>
+        <f t="shared" si="43"/>
+        <v>1421992.1019560299</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B41" s="4">
-        <v>3120838</v>
+        <v>3174639</v>
       </c>
       <c r="C41" s="4">
-        <v>156154</v>
+        <v>191886</v>
       </c>
       <c r="D41" s="4">
-        <v>237295</v>
+        <v>230353</v>
       </c>
       <c r="E41" s="75">
-        <f t="shared" si="29"/>
-        <v>2727389</v>
+        <f t="shared" si="40"/>
+        <v>2752400</v>
       </c>
       <c r="F41" s="4">
-        <v>217416</v>
+        <v>189384</v>
       </c>
       <c r="G41" s="4">
-        <v>1040992</v>
+        <v>1019569</v>
       </c>
       <c r="H41" s="4">
-        <v>26647</v>
+        <v>28141</v>
       </c>
       <c r="I41" s="4">
-        <v>38866</v>
+        <v>39782</v>
       </c>
       <c r="J41" s="4">
-        <v>8669</v>
+        <v>9896</v>
       </c>
       <c r="K41" s="4">
-        <v>58610</v>
+        <v>37091</v>
       </c>
       <c r="L41" s="4">
-        <v>689312</v>
+        <v>685751</v>
       </c>
       <c r="M41" s="4">
-        <v>302958</v>
+        <v>289424</v>
       </c>
       <c r="N41" s="4">
-        <v>335164</v>
+        <v>358325</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="30"/>
-        <v>57778921.959999993</v>
+        <f t="shared" si="41"/>
+        <v>61771646.749999993</v>
       </c>
       <c r="P41" s="4">
-        <v>19250004</v>
+        <v>18212204</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="33"/>
-        <v>164098584.0984</v>
+        <f t="shared" si="44"/>
+        <v>155251754.2184</v>
       </c>
       <c r="R41" s="126">
-        <f t="shared" si="34"/>
-        <v>951903.15040547599</v>
+        <f t="shared" si="45"/>
+        <v>900584.45512152684</v>
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="4">
-        <v>888134</v>
+        <v>949441</v>
       </c>
       <c r="U41" s="3">
-        <f t="shared" si="35"/>
-        <v>888134000</v>
+        <f t="shared" si="46"/>
+        <v>949441000</v>
       </c>
       <c r="W41" s="76">
-        <f t="shared" si="27"/>
-        <v>2166054</v>
+        <f t="shared" si="38"/>
+        <v>2109654</v>
       </c>
       <c r="X41" s="74">
-        <f t="shared" si="28"/>
-        <v>2383470</v>
+        <f t="shared" si="39"/>
+        <v>2299038</v>
       </c>
       <c r="Y41" s="74">
-        <f t="shared" si="32"/>
-        <v>1287067.1504054759</v>
+        <f t="shared" si="43"/>
+        <v>1258909.455121527</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B42" s="4">
-        <v>3175791</v>
+        <v>3120838</v>
       </c>
       <c r="C42" s="4">
-        <v>176267</v>
+        <v>156154</v>
       </c>
       <c r="D42" s="4">
-        <v>311614</v>
+        <v>237295</v>
       </c>
       <c r="E42" s="75">
-        <f t="shared" si="29"/>
-        <v>2687910</v>
+        <f t="shared" si="40"/>
+        <v>2727389</v>
       </c>
       <c r="F42" s="4">
-        <v>219652</v>
+        <v>217416</v>
       </c>
       <c r="G42" s="4">
-        <v>978978</v>
+        <v>1040992</v>
       </c>
       <c r="H42" s="4">
-        <v>29757</v>
+        <v>26647</v>
       </c>
       <c r="I42" s="4">
-        <v>41992</v>
+        <v>38866</v>
       </c>
       <c r="J42" s="4">
-        <v>8974</v>
+        <v>8669</v>
       </c>
       <c r="K42" s="4">
-        <v>76989</v>
+        <v>58610</v>
       </c>
       <c r="L42" s="4">
-        <v>683177</v>
+        <v>689312</v>
       </c>
       <c r="M42" s="4">
-        <v>319491</v>
+        <v>302958</v>
       </c>
       <c r="N42" s="4">
-        <v>342669</v>
+        <v>335164</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="30"/>
-        <v>59072708.909999996</v>
+        <f t="shared" si="41"/>
+        <v>57778921.959999993</v>
       </c>
       <c r="P42" s="4">
-        <v>18186393</v>
+        <v>19250004</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="33"/>
-        <v>155031725.7678</v>
+        <f t="shared" si="44"/>
+        <v>164098584.0984</v>
       </c>
       <c r="R42" s="126">
-        <f t="shared" si="34"/>
-        <v>899308.11397296831</v>
+        <f t="shared" si="45"/>
+        <v>951903.15040547599</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="4">
-        <v>834243</v>
+        <v>888134</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="35"/>
-        <v>834243000</v>
+        <f t="shared" si="46"/>
+        <v>888134000</v>
       </c>
       <c r="W42" s="76">
-        <f t="shared" si="27"/>
-        <v>2139358</v>
+        <f t="shared" si="38"/>
+        <v>2166054</v>
       </c>
       <c r="X42" s="74">
-        <f t="shared" si="28"/>
-        <v>2359010</v>
+        <f t="shared" si="39"/>
+        <v>2383470</v>
       </c>
       <c r="Y42" s="74">
-        <f t="shared" si="32"/>
-        <v>1241977.1139729684</v>
+        <f t="shared" si="43"/>
+        <v>1287067.1504054759</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B43" s="4">
-        <v>3116142</v>
+        <v>3175791</v>
       </c>
       <c r="C43" s="4">
-        <v>168045</v>
+        <v>176267</v>
       </c>
       <c r="D43" s="4">
-        <v>273402</v>
+        <v>311614</v>
       </c>
       <c r="E43" s="75">
-        <f t="shared" si="29"/>
-        <v>2674695</v>
+        <f t="shared" si="40"/>
+        <v>2687910</v>
       </c>
       <c r="F43" s="4">
-        <v>214306</v>
+        <v>219652</v>
       </c>
       <c r="G43" s="4">
-        <v>919723</v>
+        <v>978978</v>
       </c>
       <c r="H43" s="4">
-        <v>24801</v>
+        <v>29757</v>
       </c>
       <c r="I43" s="4">
-        <v>47384</v>
+        <v>41992</v>
       </c>
       <c r="J43" s="4">
-        <v>1015</v>
+        <v>8974</v>
       </c>
       <c r="K43" s="4">
-        <v>106066</v>
+        <v>76989</v>
       </c>
       <c r="L43" s="4">
-        <v>687560</v>
+        <v>683177</v>
       </c>
       <c r="M43" s="4">
-        <v>305484</v>
+        <v>319491</v>
       </c>
       <c r="N43" s="4">
-        <v>306679</v>
+        <v>342669</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="30"/>
-        <v>52868392.809999995</v>
+        <f t="shared" si="41"/>
+        <v>59072708.909999996</v>
       </c>
       <c r="P43" s="4">
-        <v>19071196</v>
+        <v>18186393</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="33"/>
-        <v>162574317.42159998</v>
+        <f t="shared" si="44"/>
+        <v>155031725.7678</v>
       </c>
       <c r="R43" s="126">
-        <f t="shared" si="34"/>
-        <v>943061.18348860135</v>
+        <f t="shared" si="45"/>
+        <v>899308.11397296831</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="4">
-        <v>811043</v>
+        <v>834243</v>
       </c>
       <c r="U43" s="3">
-        <f t="shared" si="35"/>
-        <v>811043000</v>
+        <f t="shared" si="46"/>
+        <v>834243000</v>
       </c>
       <c r="W43" s="76">
-        <f t="shared" si="27"/>
-        <v>2092033</v>
+        <f t="shared" si="38"/>
+        <v>2139358</v>
       </c>
       <c r="X43" s="74">
-        <f t="shared" si="28"/>
-        <v>2306339</v>
+        <f t="shared" si="39"/>
+        <v>2359010</v>
       </c>
       <c r="Y43" s="74">
-        <f t="shared" si="32"/>
-        <v>1249740.1834886014</v>
+        <f t="shared" si="43"/>
+        <v>1241977.1139729684</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B44" s="4">
-        <v>3070239</v>
+        <v>3116142</v>
       </c>
       <c r="C44" s="4">
-        <v>170421</v>
+        <v>168045</v>
       </c>
       <c r="D44" s="4">
-        <v>262773</v>
+        <v>273402</v>
       </c>
       <c r="E44" s="75">
-        <f t="shared" si="29"/>
-        <v>2637045</v>
+        <f t="shared" si="40"/>
+        <v>2674695</v>
       </c>
       <c r="F44" s="4">
-        <v>202571</v>
+        <v>214306</v>
       </c>
       <c r="G44" s="4">
-        <v>913303</v>
+        <v>919723</v>
       </c>
       <c r="H44" s="4">
-        <v>24805</v>
+        <v>24801</v>
       </c>
       <c r="I44" s="4">
-        <v>105138</v>
+        <v>47384</v>
       </c>
       <c r="J44" s="4">
-        <v>1796</v>
+        <v>1015</v>
       </c>
       <c r="K44" s="4">
-        <v>151329</v>
+        <v>106066</v>
       </c>
       <c r="L44" s="4">
-        <v>562243</v>
+        <v>687560</v>
       </c>
       <c r="M44" s="4">
-        <v>337055</v>
+        <v>305484</v>
       </c>
       <c r="N44" s="4">
-        <v>282741</v>
+        <v>306679</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="30"/>
-        <v>48741720.989999995</v>
+        <f t="shared" si="41"/>
+        <v>52868392.809999995</v>
       </c>
       <c r="P44" s="4">
-        <v>20228742</v>
+        <v>19071196</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="33"/>
-        <v>172441934.05319998</v>
+        <f t="shared" si="44"/>
+        <v>162574317.42159998</v>
       </c>
       <c r="R44" s="126">
-        <f t="shared" si="34"/>
-        <v>1000301.2590823133</v>
+        <f t="shared" si="45"/>
+        <v>943061.18348860135</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="4">
-        <v>747697</v>
+        <v>811043</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" si="35"/>
-        <v>747697000</v>
+        <f t="shared" si="46"/>
+        <v>811043000</v>
       </c>
       <c r="W44" s="76">
-        <f t="shared" si="27"/>
-        <v>2095669</v>
+        <f t="shared" si="38"/>
+        <v>2092033</v>
       </c>
       <c r="X44" s="74">
-        <f t="shared" si="28"/>
-        <v>2298240</v>
+        <f t="shared" si="39"/>
+        <v>2306339</v>
       </c>
       <c r="Y44" s="74">
-        <f t="shared" si="32"/>
-        <v>1283042.2590823132</v>
+        <f t="shared" si="43"/>
+        <v>1249740.1834886014</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B45" s="4">
-        <v>2963184</v>
+        <v>3070239</v>
       </c>
       <c r="C45" s="4">
-        <v>182030</v>
+        <v>170421</v>
       </c>
       <c r="D45" s="4">
-        <v>229128</v>
+        <v>262773</v>
       </c>
       <c r="E45" s="75">
-        <f t="shared" si="29"/>
-        <v>2552026</v>
+        <f t="shared" si="40"/>
+        <v>2637045</v>
       </c>
       <c r="F45" s="4">
-        <v>212108</v>
+        <v>202571</v>
       </c>
       <c r="G45" s="4">
-        <v>841862</v>
+        <v>913303</v>
       </c>
       <c r="H45" s="4">
-        <v>22418</v>
+        <v>24805</v>
       </c>
       <c r="I45" s="4">
-        <v>50033</v>
+        <v>105138</v>
       </c>
       <c r="J45" s="4">
-        <v>2167</v>
+        <v>1796</v>
       </c>
       <c r="K45" s="4">
-        <v>146909</v>
+        <v>151329</v>
       </c>
       <c r="L45" s="4">
-        <v>627499</v>
+        <v>562243</v>
       </c>
       <c r="M45" s="4">
-        <v>297649</v>
+        <v>337055</v>
       </c>
       <c r="N45" s="4">
-        <v>272356</v>
+        <v>282741</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="30"/>
-        <v>46951450.839999996</v>
+        <f t="shared" si="41"/>
+        <v>48741720.989999995</v>
       </c>
       <c r="P45" s="4">
-        <v>19220548</v>
+        <v>20228742</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="33"/>
-        <v>163847483.4808</v>
+        <f t="shared" si="44"/>
+        <v>172441934.05319998</v>
       </c>
       <c r="R45" s="126">
-        <f t="shared" si="34"/>
-        <v>950446.56581472256</v>
+        <f t="shared" si="45"/>
+        <v>1000301.2590823133</v>
       </c>
       <c r="S45" s="3"/>
       <c r="T45" s="4">
-        <v>689442</v>
+        <v>747697</v>
       </c>
       <c r="U45" s="3">
-        <f t="shared" si="35"/>
-        <v>689442000</v>
+        <f t="shared" si="46"/>
+        <v>747697000</v>
       </c>
       <c r="W45" s="76">
-        <f t="shared" si="27"/>
-        <v>1988537</v>
+        <f t="shared" si="38"/>
+        <v>2095669</v>
       </c>
       <c r="X45" s="74">
-        <f t="shared" si="28"/>
-        <v>2200645</v>
+        <f t="shared" si="39"/>
+        <v>2298240</v>
       </c>
       <c r="Y45" s="74">
-        <f t="shared" si="32"/>
-        <v>1222802.5658147226</v>
+        <f t="shared" si="43"/>
+        <v>1283042.2590823132</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B46" s="4">
-        <v>2996802</v>
+        <v>2963184</v>
       </c>
       <c r="C46" s="4">
-        <v>163226</v>
+        <v>182030</v>
       </c>
       <c r="D46" s="4">
-        <v>270762</v>
+        <v>229128</v>
       </c>
       <c r="E46" s="75">
-        <f t="shared" si="29"/>
-        <v>2562814</v>
+        <f t="shared" si="40"/>
+        <v>2552026</v>
       </c>
       <c r="F46" s="4">
-        <v>222365</v>
+        <v>212108</v>
       </c>
       <c r="G46" s="4">
-        <v>968994</v>
+        <v>841862</v>
       </c>
       <c r="H46" s="4">
-        <v>29842</v>
+        <v>22418</v>
       </c>
       <c r="I46" s="4">
-        <v>42322</v>
+        <v>50033</v>
       </c>
       <c r="J46" s="4">
-        <v>3065</v>
+        <v>2167</v>
       </c>
       <c r="K46" s="4">
-        <v>147894</v>
+        <v>146909</v>
       </c>
       <c r="L46" s="4">
-        <v>672298</v>
+        <v>627499</v>
       </c>
       <c r="M46" s="4">
-        <v>263534</v>
+        <v>297649</v>
       </c>
       <c r="N46" s="4">
-        <v>261180</v>
+        <v>272356</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="30"/>
-        <v>45024820.199999996</v>
+        <f t="shared" si="41"/>
+        <v>46951450.839999996</v>
       </c>
       <c r="P46" s="4">
-        <v>19060681</v>
+        <v>19220548</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="33"/>
-        <v>162484681.25259998</v>
+        <f t="shared" si="44"/>
+        <v>163847483.4808</v>
       </c>
       <c r="R46" s="126">
-        <f t="shared" si="34"/>
-        <v>942541.22195370961</v>
+        <f t="shared" si="45"/>
+        <v>950446.56581472256</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="4">
-        <v>696340</v>
+        <v>689442</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="35"/>
-        <v>696340000</v>
+        <f t="shared" si="46"/>
+        <v>689442000</v>
       </c>
       <c r="W46" s="76">
-        <f t="shared" si="27"/>
-        <v>2127949</v>
+        <f t="shared" si="38"/>
+        <v>1988537</v>
       </c>
       <c r="X46" s="74">
-        <f t="shared" si="28"/>
-        <v>2350314</v>
+        <f t="shared" si="39"/>
+        <v>2200645</v>
       </c>
       <c r="Y46" s="74">
-        <f t="shared" si="32"/>
-        <v>1203721.2219537096</v>
+        <f t="shared" si="43"/>
+        <v>1222802.5658147226</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B47" s="4">
-        <v>2809668</v>
+        <v>2996802</v>
       </c>
       <c r="C47" s="4">
-        <v>168954</v>
+        <v>163226</v>
       </c>
       <c r="D47" s="4">
-        <v>269132</v>
+        <v>270762</v>
       </c>
       <c r="E47" s="75">
-        <f t="shared" si="29"/>
-        <v>2371582</v>
+        <f t="shared" si="40"/>
+        <v>2562814</v>
       </c>
       <c r="F47" s="4">
-        <v>213721</v>
+        <v>222365</v>
       </c>
       <c r="G47" s="4">
-        <v>834243</v>
+        <v>968994</v>
       </c>
       <c r="H47" s="4">
-        <v>20167</v>
+        <v>29842</v>
       </c>
       <c r="I47" s="4">
-        <v>40917</v>
+        <v>42322</v>
       </c>
       <c r="J47" s="4">
-        <v>3457</v>
+        <v>3065</v>
       </c>
       <c r="K47" s="4">
-        <v>184752</v>
+        <v>147894</v>
       </c>
       <c r="L47" s="4">
-        <v>666518</v>
+        <v>672298</v>
       </c>
       <c r="M47" s="4">
-        <v>238703</v>
+        <v>263534</v>
       </c>
       <c r="N47" s="4">
-        <v>252237</v>
+        <v>261180</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="30"/>
-        <v>43483136.43</v>
-      </c>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
+        <f t="shared" si="41"/>
+        <v>45024820.199999996</v>
+      </c>
+      <c r="P47" s="4">
+        <v>19060681</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="44"/>
+        <v>162484681.25259998</v>
+      </c>
+      <c r="R47" s="126">
+        <f t="shared" si="45"/>
+        <v>942541.22195370961</v>
+      </c>
       <c r="S47" s="3"/>
       <c r="T47" s="4">
+        <v>696340</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="46"/>
+        <v>696340000</v>
+      </c>
+      <c r="W47" s="76">
+        <f t="shared" si="38"/>
+        <v>2127949</v>
+      </c>
+      <c r="X47" s="74">
+        <f t="shared" si="39"/>
+        <v>2350314</v>
+      </c>
+      <c r="Y47" s="74">
+        <f t="shared" si="43"/>
+        <v>1203721.2219537096</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B48" s="4">
+        <v>2809668</v>
+      </c>
+      <c r="C48" s="4">
+        <v>168954</v>
+      </c>
+      <c r="D48" s="4">
+        <v>269132</v>
+      </c>
+      <c r="E48" s="75">
+        <f t="shared" si="40"/>
+        <v>2371582</v>
+      </c>
+      <c r="F48" s="4">
+        <v>213721</v>
+      </c>
+      <c r="G48" s="4">
+        <v>834243</v>
+      </c>
+      <c r="H48" s="4">
+        <v>20167</v>
+      </c>
+      <c r="I48" s="4">
+        <v>40917</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3457</v>
+      </c>
+      <c r="K48" s="4">
+        <v>184752</v>
+      </c>
+      <c r="L48" s="4">
+        <v>666518</v>
+      </c>
+      <c r="M48" s="4">
+        <v>238703</v>
+      </c>
+      <c r="N48" s="4">
+        <v>252237</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="41"/>
+        <v>43483136.43</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="4">
         <v>512517</v>
       </c>
-      <c r="U47" s="3">
-        <f>T47*1000</f>
+      <c r="U48" s="3">
+        <f>T48*1000</f>
         <v>512517000</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="137">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="136">
         <v>2020</v>
       </c>
-      <c r="B48" s="137">
+      <c r="B49" s="136">
         <v>2442831</v>
       </c>
-      <c r="C48" s="137">
+      <c r="C49" s="136">
         <v>139469</v>
       </c>
-      <c r="D48" s="137">
+      <c r="D49" s="136">
         <v>213399</v>
       </c>
-      <c r="E48" s="137">
-        <f t="shared" si="29"/>
+      <c r="E49" s="136">
+        <f t="shared" si="40"/>
         <v>2089963</v>
       </c>
-      <c r="F48" s="137">
+      <c r="F49" s="136">
         <v>174223</v>
       </c>
-      <c r="G48" s="137">
+      <c r="G49" s="136">
         <v>818900</v>
       </c>
-      <c r="H48" s="137">
+      <c r="H49" s="136">
         <v>18468</v>
       </c>
-      <c r="I48" s="137">
+      <c r="I49" s="136">
         <v>13897</v>
       </c>
-      <c r="J48" s="137">
+      <c r="J49" s="136">
         <v>8046</v>
       </c>
-      <c r="K48" s="137">
+      <c r="K49" s="136">
         <v>139592</v>
       </c>
-      <c r="L48" s="137">
+      <c r="L49" s="136">
         <v>673806</v>
       </c>
-      <c r="M48" s="137">
+      <c r="M49" s="136">
         <v>249876</v>
       </c>
-      <c r="N48" s="137">
+      <c r="N49" s="136">
         <v>184180</v>
       </c>
-      <c r="O48" s="3">
-        <f t="shared" si="30"/>
+      <c r="O49" s="3">
+        <f t="shared" si="41"/>
         <v>31750790.199999999</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>227</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>182</v>
       </c>
-      <c r="K49" s="165" t="s">
+      <c r="K50" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="L49" s="165"/>
-      <c r="M49" s="165"/>
-      <c r="N49" s="165"/>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50">
+      <c r="L50" s="150"/>
+      <c r="M50" s="150"/>
+      <c r="N50" s="150"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>955101</v>
       </c>
-      <c r="C50" s="74">
-        <f>R28+N28</f>
+      <c r="C51" s="74">
+        <f>R29+N29</f>
         <v>1351010.8886362319</v>
       </c>
-      <c r="H50" s="25" t="s">
+      <c r="H51" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="I51" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K51" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="L50" s="25" t="s">
+      <c r="L51" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="M51" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="N51" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O50" s="25" t="s">
+      <c r="O51" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="P50" s="25" t="s">
+      <c r="P51" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="28" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B52" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D52" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="E51" s="28" t="s">
+      <c r="E52" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="F51" s="28" t="s">
+      <c r="F52" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="G51" s="28" t="s">
+      <c r="G52" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="H51" s="143" t="s">
+      <c r="H52" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="I51" s="138"/>
-      <c r="J51" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="143" t="s">
+      <c r="I52" s="137"/>
+      <c r="J52" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
-      <c r="O51" s="143"/>
-      <c r="P51" s="143"/>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52">
+      <c r="L52" s="142"/>
+      <c r="M52" s="142"/>
+      <c r="N52" s="142"/>
+      <c r="O52" s="142"/>
+      <c r="P52" s="142"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>2000</v>
       </c>
-      <c r="C52">
-        <f>C28/B28</f>
+      <c r="C53">
+        <f>C29/B29</f>
         <v>8.1783971472118383E-2</v>
       </c>
-      <c r="D52">
-        <f>D28/B28</f>
+      <c r="D53">
+        <f>D29/B29</f>
         <v>5.9588074595474723E-2</v>
       </c>
-      <c r="E52">
-        <f t="shared" ref="E52:E71" si="36">E28/B28</f>
+      <c r="E53">
+        <f t="shared" ref="E53:E72" si="47">E29/B29</f>
         <v>0.85862795393240687</v>
       </c>
-      <c r="F52">
-        <f t="shared" ref="F52:F71" si="37">SUM(C52:E52)</f>
+      <c r="F53">
+        <f t="shared" ref="F53:F72" si="48">SUM(C53:E53)</f>
         <v>1</v>
       </c>
-      <c r="G52" s="1">
-        <f>SUM(G28:M28)</f>
+      <c r="G53" s="1">
+        <f>SUM(G29:M29)</f>
         <v>2356670</v>
       </c>
-      <c r="H52" s="9">
-        <f>G28*$K$24</f>
+      <c r="H53" s="9">
+        <f>G29*$K$25</f>
         <v>273128682.34999996</v>
       </c>
-      <c r="I52" s="126">
-        <f>H28*$K$24</f>
+      <c r="I53" s="126">
+        <f>H29*$K$25</f>
         <v>5487518.4799999995</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J53" s="3">
         <v>2000</v>
       </c>
-      <c r="K52" s="3">
-        <f>E28*$P$5</f>
+      <c r="K53" s="3">
+        <f>E29*$P$5</f>
         <v>429447452.20999998</v>
       </c>
-      <c r="L52" s="4">
-        <f>K28*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="4">
-        <f t="shared" ref="M52:N52" si="38">L28*$P$5</f>
+      <c r="L53" s="4">
+        <f>K29*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <f t="shared" ref="M53:N53" si="49">L29*$P$5</f>
         <v>83339876.819999993</v>
       </c>
-      <c r="N52" s="4">
-        <f t="shared" si="38"/>
+      <c r="N53" s="4">
+        <f t="shared" si="49"/>
         <v>38540197.959999993</v>
       </c>
-      <c r="O52" s="4">
-        <f>SUM(L52:N52)</f>
+      <c r="O53" s="4">
+        <f>SUM(L53:N53)</f>
         <v>121880074.77999999</v>
       </c>
-      <c r="P52" s="3">
-        <f>O28+Q28</f>
+      <c r="P53" s="3">
+        <f>O29+Q29</f>
         <v>232900767.09199998</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>2001</v>
       </c>
-      <c r="C53">
-        <f t="shared" ref="C53:C71" si="39">C29/B29</f>
+      <c r="C54">
+        <f t="shared" ref="C54:C72" si="50">C30/B30</f>
         <v>7.8112772105182887E-2</v>
       </c>
-      <c r="D53">
-        <f t="shared" ref="D53:D71" si="40">D29/B29</f>
+      <c r="D54">
+        <f t="shared" ref="D54:D72" si="51">D30/B30</f>
         <v>6.6419964619733401E-2</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="36"/>
+      <c r="E54">
+        <f t="shared" si="47"/>
         <v>0.85546726327508371</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="37"/>
+      <c r="F54">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G53" s="1">
-        <f t="shared" ref="G53:G71" si="41">SUM(G29:M29)</f>
+      <c r="G54" s="1">
+        <f t="shared" ref="G54:G72" si="52">SUM(G30:M30)</f>
         <v>2243522</v>
       </c>
-      <c r="H53" s="9">
-        <f t="shared" ref="H53:I53" si="42">G29*$K$24</f>
+      <c r="H54" s="9">
+        <f t="shared" ref="H54:I54" si="53">G30*$K$25</f>
         <v>256849894.64999998</v>
       </c>
-      <c r="I53" s="126">
-        <f t="shared" si="42"/>
+      <c r="I54" s="126">
+        <f t="shared" si="53"/>
         <v>2207798.73</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J54" s="3">
         <v>2001</v>
       </c>
-      <c r="K53" s="3">
-        <f t="shared" ref="K53:K72" si="43">E29*$P$5</f>
+      <c r="K54" s="3">
+        <f t="shared" ref="K54:K73" si="54">E30*$P$5</f>
         <v>413824436.06999999</v>
       </c>
-      <c r="L53" s="4">
-        <f t="shared" ref="L53:N53" si="44">K29*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <f t="shared" si="44"/>
+      <c r="L54" s="4">
+        <f t="shared" ref="L54:N54" si="55">K30*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="55"/>
         <v>78575017.219999999</v>
       </c>
-      <c r="N53" s="4">
-        <f t="shared" si="44"/>
+      <c r="N54" s="4">
+        <f t="shared" si="55"/>
         <v>43828088.819999993</v>
       </c>
-      <c r="O53" s="4">
-        <f t="shared" ref="O53:O72" si="45">SUM(L53:N53)</f>
+      <c r="O54" s="4">
+        <f t="shared" ref="O54:O73" si="56">SUM(L54:N54)</f>
         <v>122403106.03999999</v>
       </c>
-      <c r="P53" s="3">
-        <f t="shared" ref="P53:P72" si="46">O29+Q29</f>
+      <c r="P54" s="3">
+        <f t="shared" ref="P54:P73" si="57">O30+Q30</f>
         <v>213030908.60879999</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>2002</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="39"/>
+      <c r="C55">
+        <f t="shared" si="50"/>
         <v>6.6815309804024892E-2</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="40"/>
+      <c r="D55">
+        <f t="shared" si="51"/>
         <v>5.8156901943283969E-2</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="36"/>
+      <c r="E55">
+        <f t="shared" si="47"/>
         <v>0.87502778825269112</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="37"/>
+      <c r="F55">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G54" s="1">
-        <f t="shared" si="41"/>
+      <c r="G55" s="1">
+        <f t="shared" si="52"/>
         <v>2360260</v>
       </c>
-      <c r="H54" s="9">
-        <f t="shared" ref="H54:I54" si="47">G30*$K$24</f>
+      <c r="H55" s="9">
+        <f t="shared" ref="H55:I55" si="58">G31*$K$25</f>
         <v>285559208.07999998</v>
       </c>
-      <c r="I54" s="126">
+      <c r="I55" s="126">
+        <f t="shared" si="58"/>
+        <v>4637463.3899999997</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2002</v>
+      </c>
+      <c r="K55" s="3">
+        <f t="shared" si="54"/>
+        <v>458022129.04999995</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" ref="L55:N55" si="59">K31*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="59"/>
+        <v>77275713.789999992</v>
+      </c>
+      <c r="N55" s="4">
+        <f t="shared" si="59"/>
+        <v>33840157</v>
+      </c>
+      <c r="O55" s="4">
+        <f t="shared" si="56"/>
+        <v>111115870.78999999</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="57"/>
+        <v>237457124.01399997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>2003</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="50"/>
+        <v>7.2266700219285801E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="51"/>
+        <v>4.7130759817865062E-2</v>
+      </c>
+      <c r="E56">
         <f t="shared" si="47"/>
-        <v>4637463.3899999997</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2002</v>
-      </c>
-      <c r="K54" s="3">
-        <f t="shared" si="43"/>
-        <v>458022129.04999995</v>
-      </c>
-      <c r="L54" s="4">
-        <f t="shared" ref="L54:N54" si="48">K30*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="4">
+        <v>0.8806025399628491</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="48"/>
-        <v>77275713.789999992</v>
-      </c>
-      <c r="N54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="52"/>
+        <v>2455576</v>
+      </c>
+      <c r="H56" s="9">
+        <f t="shared" ref="H56:I56" si="60">G32*$K$25</f>
+        <v>296360303.52999997</v>
+      </c>
+      <c r="I56" s="126">
+        <f t="shared" si="60"/>
+        <v>4211315.3099999996</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2003</v>
+      </c>
+      <c r="K56" s="3">
+        <f t="shared" si="54"/>
+        <v>478988200.84999996</v>
+      </c>
+      <c r="L56" s="4">
+        <f t="shared" ref="L56:N56" si="61">K32*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="4">
+        <f t="shared" si="61"/>
+        <v>86302226.579999998</v>
+      </c>
+      <c r="N56" s="4">
+        <f t="shared" si="61"/>
+        <v>32269166.929999996</v>
+      </c>
+      <c r="O56" s="4">
+        <f t="shared" si="56"/>
+        <v>118571393.50999999</v>
+      </c>
+      <c r="P56" s="3">
+        <f t="shared" si="57"/>
+        <v>244098972</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2004</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="50"/>
+        <v>6.8795866768532707E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="51"/>
+        <v>4.493990402620554E-2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="47"/>
+        <v>0.88626422920526171</v>
+      </c>
+      <c r="F57">
         <f t="shared" si="48"/>
-        <v>33840157</v>
-      </c>
-      <c r="O54" s="4">
-        <f t="shared" si="45"/>
-        <v>111115870.78999999</v>
-      </c>
-      <c r="P54" s="3">
-        <f t="shared" si="46"/>
-        <v>237457124.01399997</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>2003</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="39"/>
-        <v>7.2266700219285801E-2</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="40"/>
-        <v>4.7130759817865062E-2</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="36"/>
-        <v>0.8806025399628491</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="37"/>
         <v>1</v>
       </c>
-      <c r="G55" s="1">
-        <f t="shared" si="41"/>
-        <v>2455576</v>
-      </c>
-      <c r="H55" s="9">
-        <f t="shared" ref="H55:I55" si="49">G31*$K$24</f>
-        <v>296360303.52999997</v>
-      </c>
-      <c r="I55" s="126">
-        <f t="shared" si="49"/>
-        <v>4211315.3099999996</v>
-      </c>
-      <c r="J55" s="3">
-        <v>2003</v>
-      </c>
-      <c r="K55" s="3">
-        <f t="shared" si="43"/>
-        <v>478988200.84999996</v>
-      </c>
-      <c r="L55" s="4">
-        <f t="shared" ref="L55:N55" si="50">K31*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="4">
+      <c r="G57" s="1">
+        <f t="shared" si="52"/>
+        <v>2302240</v>
+      </c>
+      <c r="H57" s="9">
+        <f t="shared" ref="H57:I57" si="62">G33*$K$25</f>
+        <v>277197948.29999995</v>
+      </c>
+      <c r="I57" s="126">
+        <f t="shared" si="62"/>
+        <v>4940869.79</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2004</v>
+      </c>
+      <c r="K57" s="3">
+        <f t="shared" si="54"/>
+        <v>458952000.70999998</v>
+      </c>
+      <c r="L57" s="4">
+        <f t="shared" ref="L57:N57" si="63">K33*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="4">
+        <f t="shared" si="63"/>
+        <v>81660281.049999997</v>
+      </c>
+      <c r="N57" s="4">
+        <f t="shared" si="63"/>
+        <v>29212692.229999997</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" si="56"/>
+        <v>110872973.28</v>
+      </c>
+      <c r="P57" s="3">
+        <f t="shared" si="57"/>
+        <v>243250048.57819998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>2005</v>
+      </c>
+      <c r="C58">
         <f t="shared" si="50"/>
-        <v>86302226.579999998</v>
-      </c>
-      <c r="N55" s="4">
+        <v>6.6957175076482051E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="51"/>
+        <v>3.5920854602539541E-2</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="47"/>
+        <v>0.8971219703209784</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="52"/>
+        <v>2209423</v>
+      </c>
+      <c r="H58" s="9">
+        <f t="shared" ref="H58:I58" si="64">G34*$K$25</f>
+        <v>260539040.64999998</v>
+      </c>
+      <c r="I58" s="126">
+        <f t="shared" si="64"/>
+        <v>4237001.42</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2005</v>
+      </c>
+      <c r="K58" s="3">
+        <f t="shared" si="54"/>
+        <v>461697483.84999996</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" ref="L58:N58" si="65">K34*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="65"/>
+        <v>82813052.979999989</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="65"/>
+        <v>30206520.579999998</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="56"/>
+        <v>113019573.55999999</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" si="57"/>
+        <v>245157075.08899999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>2006</v>
+      </c>
+      <c r="C59">
         <f t="shared" si="50"/>
-        <v>32269166.929999996</v>
-      </c>
-      <c r="O55" s="4">
-        <f t="shared" si="45"/>
-        <v>118571393.50999999</v>
-      </c>
-      <c r="P55" s="3">
-        <f t="shared" si="46"/>
-        <v>244098972</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>2004</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="39"/>
-        <v>6.8795866768532707E-2</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="40"/>
-        <v>4.493990402620554E-2</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="36"/>
-        <v>0.88626422920526171</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="37"/>
+        <v>6.273093709980071E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="51"/>
+        <v>3.8096518039794892E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="47"/>
+        <v>0.89917254486040443</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G56" s="1">
-        <f t="shared" si="41"/>
-        <v>2302240</v>
-      </c>
-      <c r="H56" s="9">
-        <f t="shared" ref="H56:I56" si="51">G32*$K$24</f>
-        <v>277197948.29999995</v>
-      </c>
-      <c r="I56" s="126">
+      <c r="G59" s="1">
+        <f t="shared" si="52"/>
+        <v>2116533</v>
+      </c>
+      <c r="H59" s="9">
+        <f t="shared" ref="H59:I59" si="66">G35*$K$25</f>
+        <v>247568072.26999998</v>
+      </c>
+      <c r="I59" s="126">
+        <f t="shared" si="66"/>
+        <v>5668010.8099999996</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2006</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="54"/>
+        <v>457894215.66999996</v>
+      </c>
+      <c r="L59" s="4">
+        <f t="shared" ref="L59:N59" si="67">K35*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="4">
+        <f t="shared" si="67"/>
+        <v>79519542.029999986</v>
+      </c>
+      <c r="N59" s="4">
+        <f t="shared" si="67"/>
+        <v>29180282.909999996</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="56"/>
+        <v>108699824.93999998</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="57"/>
+        <v>235294916.83660001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>2007</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="50"/>
+        <v>5.2504330717081202E-2</v>
+      </c>
+      <c r="D60">
         <f t="shared" si="51"/>
-        <v>4940869.79</v>
-      </c>
-      <c r="J56" s="3">
-        <v>2004</v>
-      </c>
-      <c r="K56" s="3">
-        <f t="shared" si="43"/>
-        <v>458952000.70999998</v>
-      </c>
-      <c r="L56" s="4">
-        <f t="shared" ref="L56:N56" si="52">K32*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="4">
+        <v>3.4899520234963677E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="47"/>
+        <v>0.91259614904795516</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
         <f t="shared" si="52"/>
-        <v>81660281.049999997</v>
-      </c>
-      <c r="N56" s="4">
+        <v>1989897</v>
+      </c>
+      <c r="H60" s="9">
+        <f t="shared" ref="H60:I60" si="68">G36*$K$25</f>
+        <v>224166991.71999997</v>
+      </c>
+      <c r="I60" s="126">
+        <f t="shared" si="68"/>
+        <v>6050199.4399999995</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2007</v>
+      </c>
+      <c r="K60" s="3">
+        <f t="shared" si="54"/>
+        <v>441374426.74999994</v>
+      </c>
+      <c r="L60" s="4">
+        <f t="shared" ref="L60:N60" si="69">K36*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="4">
+        <f t="shared" si="69"/>
+        <v>76522024.709999993</v>
+      </c>
+      <c r="N60" s="4">
+        <f t="shared" si="69"/>
+        <v>31604086.309999999</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="56"/>
+        <v>108126111.02</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="57"/>
+        <v>232812474.91139996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>2008</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="50"/>
+        <v>5.3681938413934219E-2</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="51"/>
+        <v>3.9406611657322843E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="47"/>
+        <v>0.90691144992874295</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
         <f t="shared" si="52"/>
-        <v>29212692.229999997</v>
-      </c>
-      <c r="O56" s="4">
-        <f t="shared" si="45"/>
-        <v>110872973.28</v>
-      </c>
-      <c r="P56" s="3">
-        <f t="shared" si="46"/>
-        <v>243250048.57819998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>2005</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="39"/>
-        <v>6.6957175076482051E-2</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="40"/>
-        <v>3.5920854602539541E-2</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="36"/>
-        <v>0.8971219703209784</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="37"/>
+        <v>2161347</v>
+      </c>
+      <c r="H61" s="9">
+        <f t="shared" ref="H61:I61" si="70">G37*$K$25</f>
+        <v>219082521.05999997</v>
+      </c>
+      <c r="I61" s="126">
+        <f t="shared" si="70"/>
+        <v>2274858.44</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2008</v>
+      </c>
+      <c r="K61" s="3">
+        <f t="shared" si="54"/>
+        <v>451099291.42999995</v>
+      </c>
+      <c r="L61" s="4">
+        <f t="shared" ref="L61:N61" si="71">K37*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="4">
+        <f t="shared" si="71"/>
+        <v>107505162.23999999</v>
+      </c>
+      <c r="N61" s="4">
+        <f t="shared" si="71"/>
+        <v>38138874.039999999</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="56"/>
+        <v>145644036.28</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="57"/>
+        <v>215938574.90719998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>2009</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="50"/>
+        <v>5.0573410343438541E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="51"/>
+        <v>5.6493897050439792E-2</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="47"/>
+        <v>0.89293269260612163</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G57" s="1">
-        <f t="shared" si="41"/>
-        <v>2209423</v>
-      </c>
-      <c r="H57" s="9">
-        <f t="shared" ref="H57:I57" si="53">G33*$K$24</f>
-        <v>260539040.64999998</v>
-      </c>
-      <c r="I57" s="126">
-        <f t="shared" si="53"/>
-        <v>4237001.42</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2005</v>
-      </c>
-      <c r="K57" s="3">
-        <f t="shared" si="43"/>
-        <v>461697483.84999996</v>
-      </c>
-      <c r="L57" s="4">
-        <f t="shared" ref="L57:N57" si="54">K33*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="4">
+      <c r="G62" s="1">
+        <f t="shared" si="52"/>
+        <v>2165613</v>
+      </c>
+      <c r="H62" s="9">
+        <f t="shared" ref="H62:I62" si="72">G38*$K$25</f>
+        <v>210574729.77999997</v>
+      </c>
+      <c r="I62" s="126">
+        <f t="shared" si="72"/>
+        <v>3069576.34</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2009</v>
+      </c>
+      <c r="K62" s="3">
         <f t="shared" si="54"/>
-        <v>82813052.979999989</v>
-      </c>
-      <c r="N57" s="4">
+        <v>471172038.24999994</v>
+      </c>
+      <c r="L62" s="4">
+        <f t="shared" ref="L62:N62" si="73">K38*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="4">
+        <f t="shared" si="73"/>
+        <v>112816842.91999999</v>
+      </c>
+      <c r="N62" s="4">
+        <f t="shared" si="73"/>
+        <v>39911905.189999998</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="56"/>
+        <v>152728748.10999998</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="57"/>
+        <v>220621466.89919999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2010</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="50"/>
+        <v>5.1310133372774673E-2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="51"/>
+        <v>5.4259136657205442E-2</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="47"/>
+        <v>0.89443072997001993</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="52"/>
+        <v>2393300</v>
+      </c>
+      <c r="H63" s="9">
+        <f t="shared" ref="H63:I63" si="74">G39*$K$25</f>
+        <v>246158611.63</v>
+      </c>
+      <c r="I63" s="126">
+        <f t="shared" si="74"/>
+        <v>3597089.7399999998</v>
+      </c>
+      <c r="J63" s="3">
+        <v>2010</v>
+      </c>
+      <c r="K63" s="3">
         <f t="shared" si="54"/>
-        <v>30206520.579999998</v>
-      </c>
-      <c r="O57" s="4">
-        <f t="shared" si="45"/>
-        <v>113019573.55999999</v>
-      </c>
-      <c r="P57" s="3">
-        <f t="shared" si="46"/>
-        <v>245157075.08899999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>2006</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="39"/>
-        <v>6.273093709980071E-2</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="40"/>
-        <v>3.8096518039794892E-2</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="36"/>
-        <v>0.89917254486040443</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="37"/>
+        <v>525419723.44999999</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" ref="L63:N63" si="75">K39*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="75"/>
+        <v>109529882.78999999</v>
+      </c>
+      <c r="N63" s="4">
+        <f t="shared" si="75"/>
+        <v>46373427.169999994</v>
+      </c>
+      <c r="O63" s="4">
+        <f t="shared" si="56"/>
+        <v>155903309.95999998</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="57"/>
+        <v>263739219.01800001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>2011</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="50"/>
+        <v>5.7117737216706044E-2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="51"/>
+        <v>5.5110292751550112E-2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="47"/>
+        <v>0.8877719700317438</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G58" s="1">
-        <f t="shared" si="41"/>
-        <v>2116533</v>
-      </c>
-      <c r="H58" s="9">
-        <f t="shared" ref="H58:I58" si="55">G34*$K$24</f>
-        <v>247568072.26999998</v>
-      </c>
-      <c r="I58" s="126">
-        <f t="shared" si="55"/>
-        <v>5668010.8099999996</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2006</v>
-      </c>
-      <c r="K58" s="3">
-        <f t="shared" si="43"/>
-        <v>457894215.66999996</v>
-      </c>
-      <c r="L58" s="4">
-        <f t="shared" ref="L58:N58" si="56">K34*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="4">
+      <c r="G64" s="1">
+        <f t="shared" si="52"/>
+        <v>2267878</v>
+      </c>
+      <c r="H64" s="9">
+        <f t="shared" ref="H64:I64" si="76">G40*$K$25</f>
+        <v>222926300.88999999</v>
+      </c>
+      <c r="I64" s="126">
+        <f t="shared" si="76"/>
+        <v>2463280.71</v>
+      </c>
+      <c r="J64" s="3">
+        <v>2011</v>
+      </c>
+      <c r="K64" s="3">
+        <f t="shared" si="54"/>
+        <v>498366043.57999998</v>
+      </c>
+      <c r="L64" s="4">
+        <f t="shared" ref="L64:N64" si="77">K40*$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="4">
+        <f t="shared" si="77"/>
+        <v>114845356.05</v>
+      </c>
+      <c r="N64" s="4">
+        <f t="shared" si="77"/>
+        <v>42902871.689999998</v>
+      </c>
+      <c r="O64" s="4">
         <f t="shared" si="56"/>
-        <v>79519542.029999986</v>
-      </c>
-      <c r="N58" s="4">
-        <f t="shared" si="56"/>
-        <v>29180282.909999996</v>
-      </c>
-      <c r="O58" s="4">
-        <f t="shared" si="45"/>
-        <v>108699824.93999998</v>
-      </c>
-      <c r="P58" s="3">
-        <f t="shared" si="46"/>
-        <v>235294916.83660001</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>2007</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="39"/>
-        <v>5.2504330717081202E-2</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="40"/>
-        <v>3.4899520234963677E-2</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="36"/>
-        <v>0.91259614904795516</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="41"/>
-        <v>1989897</v>
-      </c>
-      <c r="H59" s="9">
-        <f t="shared" ref="H59:I59" si="57">G35*$K$24</f>
-        <v>224166991.71999997</v>
-      </c>
-      <c r="I59" s="126">
+        <v>157748227.74000001</v>
+      </c>
+      <c r="P64" s="3">
         <f t="shared" si="57"/>
-        <v>6050199.4399999995</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2007</v>
-      </c>
-      <c r="K59" s="3">
-        <f t="shared" si="43"/>
-        <v>441374426.74999994</v>
-      </c>
-      <c r="L59" s="4">
-        <f t="shared" ref="L59:N59" si="58">K35*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="4">
-        <f t="shared" si="58"/>
-        <v>76522024.709999993</v>
-      </c>
-      <c r="N59" s="4">
-        <f t="shared" si="58"/>
-        <v>31604086.309999999</v>
-      </c>
-      <c r="O59" s="4">
-        <f t="shared" si="45"/>
-        <v>108126111.02</v>
-      </c>
-      <c r="P59" s="3">
-        <f t="shared" si="46"/>
-        <v>232812474.91139996</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>2008</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="39"/>
-        <v>5.3681938413934219E-2</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="40"/>
-        <v>3.9406611657322843E-2</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="36"/>
-        <v>0.90691144992874295</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="41"/>
-        <v>2161347</v>
-      </c>
-      <c r="H60" s="9">
-        <f t="shared" ref="H60:I60" si="59">G36*$K$24</f>
-        <v>219082521.05999997</v>
-      </c>
-      <c r="I60" s="126">
-        <f t="shared" si="59"/>
-        <v>2274858.44</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2008</v>
-      </c>
-      <c r="K60" s="3">
-        <f t="shared" si="43"/>
-        <v>451099291.42999995</v>
-      </c>
-      <c r="L60" s="4">
-        <f t="shared" ref="L60:N60" si="60">K36*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="4">
-        <f t="shared" si="60"/>
-        <v>107505162.23999999</v>
-      </c>
-      <c r="N60" s="4">
-        <f t="shared" si="60"/>
-        <v>38138874.039999999</v>
-      </c>
-      <c r="O60" s="4">
-        <f t="shared" si="45"/>
-        <v>145644036.28</v>
-      </c>
-      <c r="P60" s="3">
-        <f t="shared" si="46"/>
-        <v>215938574.90719998</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>2009</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="39"/>
-        <v>5.0573410343438541E-2</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="40"/>
-        <v>5.6493897050439792E-2</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="36"/>
-        <v>0.89293269260612163</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="41"/>
-        <v>2165613</v>
-      </c>
-      <c r="H61" s="9">
-        <f t="shared" ref="H61:I61" si="61">G37*$K$24</f>
-        <v>210574729.77999997</v>
-      </c>
-      <c r="I61" s="126">
-        <f t="shared" si="61"/>
-        <v>3069576.34</v>
-      </c>
-      <c r="J61" s="3">
-        <v>2009</v>
-      </c>
-      <c r="K61" s="3">
-        <f t="shared" si="43"/>
-        <v>471172038.24999994</v>
-      </c>
-      <c r="L61" s="4">
-        <f t="shared" ref="L61:N61" si="62">K37*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="4">
-        <f t="shared" si="62"/>
-        <v>112816842.91999999</v>
-      </c>
-      <c r="N61" s="4">
-        <f t="shared" si="62"/>
-        <v>39911905.189999998</v>
-      </c>
-      <c r="O61" s="4">
-        <f t="shared" si="45"/>
-        <v>152728748.10999998</v>
-      </c>
-      <c r="P61" s="3">
-        <f t="shared" si="46"/>
-        <v>220621466.89919999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>2010</v>
-      </c>
-      <c r="C62">
-        <f t="shared" si="39"/>
-        <v>5.1310133372774673E-2</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="40"/>
-        <v>5.4259136657205442E-2</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="36"/>
-        <v>0.89443072997001993</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="41"/>
-        <v>2393300</v>
-      </c>
-      <c r="H62" s="9">
-        <f t="shared" ref="H62:I62" si="63">G38*$K$24</f>
-        <v>246158611.63</v>
-      </c>
-      <c r="I62" s="126">
-        <f t="shared" si="63"/>
-        <v>3597089.7399999998</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2010</v>
-      </c>
-      <c r="K62" s="3">
-        <f t="shared" si="43"/>
-        <v>525419723.44999999</v>
-      </c>
-      <c r="L62" s="4">
-        <f t="shared" ref="L62:N62" si="64">K38*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <f t="shared" si="64"/>
-        <v>109529882.78999999</v>
-      </c>
-      <c r="N62" s="4">
-        <f t="shared" si="64"/>
-        <v>46373427.169999994</v>
-      </c>
-      <c r="O62" s="4">
-        <f t="shared" si="45"/>
-        <v>155903309.95999998</v>
-      </c>
-      <c r="P62" s="3">
-        <f t="shared" si="46"/>
-        <v>263739219.01800001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2011</v>
-      </c>
-      <c r="C63">
-        <f t="shared" si="39"/>
-        <v>5.7117737216706044E-2</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="40"/>
-        <v>5.5110292751550112E-2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="36"/>
-        <v>0.8877719700317438</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G63" s="1">
-        <f t="shared" si="41"/>
-        <v>2267878</v>
-      </c>
-      <c r="H63" s="9">
-        <f t="shared" ref="H63:I63" si="65">G39*$K$24</f>
-        <v>222926300.88999999</v>
-      </c>
-      <c r="I63" s="126">
-        <f t="shared" si="65"/>
-        <v>2463280.71</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2011</v>
-      </c>
-      <c r="K63" s="3">
-        <f t="shared" si="43"/>
-        <v>498366043.57999998</v>
-      </c>
-      <c r="L63" s="4">
-        <f t="shared" ref="L63:N63" si="66">K39*$P$5</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <f t="shared" si="66"/>
-        <v>114845356.05</v>
-      </c>
-      <c r="N63" s="4">
-        <f t="shared" si="66"/>
-        <v>42902871.689999998</v>
-      </c>
-      <c r="O63" s="4">
-        <f t="shared" si="45"/>
-        <v>157748227.74000001</v>
-      </c>
-      <c r="P63" s="3">
-        <f t="shared" si="46"/>
         <v>245137218.4562</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>2012</v>
-      </c>
-      <c r="C64">
-        <f t="shared" si="39"/>
-        <v>6.0443407896141894E-2</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="40"/>
-        <v>7.2560376156155071E-2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="36"/>
-        <v>0.86699621594770304</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="G64" s="1">
-        <f t="shared" si="41"/>
-        <v>2109654</v>
-      </c>
-      <c r="H64" s="9">
-        <f t="shared" ref="H64:I64" si="67">G40*$K$24</f>
-        <v>175763499.91</v>
-      </c>
-      <c r="I64" s="126">
-        <f t="shared" si="67"/>
-        <v>4851226.9899999993</v>
-      </c>
-      <c r="J64" s="3">
-        <v>2012</v>
-      </c>
-      <c r="K64" s="3">
-        <f t="shared" si="43"/>
-        <v>474486235.99999994</v>
-      </c>
-      <c r="L64" s="4">
-        <f t="shared" ref="L64:N64" si="68">K40*$P$5</f>
-        <v>6394117.4899999993</v>
-      </c>
-      <c r="M64" s="4">
-        <f t="shared" si="68"/>
-        <v>118216614.88999999</v>
-      </c>
-      <c r="N64" s="4">
-        <f t="shared" si="68"/>
-        <v>49893803.359999999</v>
-      </c>
-      <c r="O64" s="4">
-        <f t="shared" si="45"/>
-        <v>174504535.73999998</v>
-      </c>
-      <c r="P64" s="3">
-        <f t="shared" si="46"/>
-        <v>217023400.9684</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C65">
-        <f t="shared" si="39"/>
-        <v>5.0035919839479012E-2</v>
+        <f t="shared" si="50"/>
+        <v>6.0443407896141894E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="40"/>
-        <v>7.6035667343194363E-2</v>
+        <f t="shared" si="51"/>
+        <v>7.2560376156155071E-2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="36"/>
-        <v>0.87392841281732658</v>
+        <f t="shared" si="47"/>
+        <v>0.86699621594770304</v>
       </c>
       <c r="F65">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G65" s="1">
-        <f t="shared" si="41"/>
-        <v>2166054</v>
+        <f t="shared" si="52"/>
+        <v>2109654</v>
       </c>
       <c r="H65" s="9">
-        <f t="shared" ref="H65:I65" si="69">G41*$K$24</f>
-        <v>179456610.88</v>
+        <f t="shared" ref="H65:I65" si="78">G41*$K$25</f>
+        <v>175763499.91</v>
       </c>
       <c r="I65" s="126">
-        <f t="shared" si="69"/>
-        <v>4593676.33</v>
+        <f t="shared" si="78"/>
+        <v>4851226.9899999993</v>
       </c>
       <c r="J65" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="43"/>
-        <v>470174589.70999998</v>
+        <f t="shared" si="54"/>
+        <v>474486235.99999994</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" ref="L65:N65" si="70">K41*$P$5</f>
-        <v>10103777.899999999</v>
+        <f t="shared" ref="L65:N65" si="79">K41*$P$5</f>
+        <v>6394117.4899999993</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="70"/>
-        <v>118830495.67999999</v>
+        <f t="shared" si="79"/>
+        <v>118216614.88999999</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="70"/>
-        <v>52226929.619999997</v>
+        <f t="shared" si="79"/>
+        <v>49893803.359999999</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="45"/>
-        <v>181161203.19999999</v>
+        <f t="shared" si="56"/>
+        <v>174504535.73999998</v>
       </c>
       <c r="P65" s="3">
-        <f t="shared" si="46"/>
-        <v>221877506.05839998</v>
+        <f t="shared" si="57"/>
+        <v>217023400.9684</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C66">
-        <f t="shared" si="39"/>
-        <v>5.5503337593689257E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.0035919839479012E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="40"/>
-        <v>9.8121696295505587E-2</v>
+        <f t="shared" si="51"/>
+        <v>7.6035667343194363E-2</v>
       </c>
       <c r="E66">
-        <f t="shared" si="36"/>
-        <v>0.8463749661108052</v>
+        <f t="shared" si="47"/>
+        <v>0.87392841281732658</v>
       </c>
       <c r="F66">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G66" s="1">
-        <f t="shared" si="41"/>
-        <v>2139358</v>
+        <f t="shared" si="52"/>
+        <v>2166054</v>
       </c>
       <c r="H66" s="9">
-        <f t="shared" ref="H66:I66" si="71">G42*$K$24</f>
-        <v>168766017.41999999</v>
+        <f t="shared" ref="H66:I66" si="80">G42*$K$25</f>
+        <v>179456610.88</v>
       </c>
       <c r="I66" s="126">
-        <f t="shared" si="71"/>
-        <v>5129809.2299999995</v>
+        <f t="shared" si="80"/>
+        <v>4593676.33</v>
       </c>
       <c r="J66" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" si="43"/>
-        <v>463368804.89999998</v>
+        <f t="shared" si="54"/>
+        <v>470174589.70999998</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" ref="L66:N66" si="72">K42*$P$5</f>
-        <v>13272133.709999999</v>
+        <f t="shared" ref="L66:N66" si="81">K42*$P$5</f>
+        <v>10103777.899999999</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="72"/>
-        <v>117772883.02999999</v>
+        <f t="shared" si="81"/>
+        <v>118830495.67999999</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="72"/>
-        <v>55077053.489999995</v>
+        <f t="shared" si="81"/>
+        <v>52226929.619999997</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="45"/>
-        <v>186122070.22999996</v>
+        <f t="shared" si="56"/>
+        <v>181161203.19999999</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" si="46"/>
-        <v>214104434.6778</v>
+        <f t="shared" si="57"/>
+        <v>221877506.05839998</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C67">
-        <f t="shared" si="39"/>
-        <v>5.39272600542594E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.5503337593689257E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" si="40"/>
-        <v>8.7737336745244601E-2</v>
+        <f t="shared" si="51"/>
+        <v>9.8121696295505587E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" si="36"/>
-        <v>0.85833540320049595</v>
+        <f t="shared" si="47"/>
+        <v>0.8463749661108052</v>
       </c>
       <c r="F67">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G67" s="1">
-        <f t="shared" si="41"/>
-        <v>2092033</v>
+        <f t="shared" si="52"/>
+        <v>2139358</v>
       </c>
       <c r="H67" s="9">
-        <f t="shared" ref="H67:I67" si="73">G43*$K$24</f>
-        <v>158551047.97</v>
+        <f t="shared" ref="H67:I67" si="82">G43*$K$25</f>
+        <v>168766017.41999999</v>
       </c>
       <c r="I67" s="126">
-        <f t="shared" si="73"/>
-        <v>4275444.3899999997</v>
+        <f t="shared" si="82"/>
+        <v>5129809.2299999995</v>
       </c>
       <c r="J67" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="43"/>
-        <v>461090671.04999995</v>
+        <f t="shared" si="54"/>
+        <v>463368804.89999998</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" ref="L67:N67" si="74">K43*$P$5</f>
-        <v>18284717.739999998</v>
+        <f t="shared" ref="L67:N67" si="83">K43*$P$5</f>
+        <v>13272133.709999999</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="74"/>
-        <v>118528468.39999999</v>
+        <f t="shared" si="83"/>
+        <v>117772883.02999999</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="74"/>
-        <v>52662386.759999998</v>
+        <f t="shared" si="83"/>
+        <v>55077053.489999995</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="45"/>
-        <v>189475572.89999998</v>
+        <f t="shared" si="56"/>
+        <v>186122070.22999996</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" si="46"/>
-        <v>215442710.23159999</v>
+        <f t="shared" si="57"/>
+        <v>214104434.6778</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C68">
-        <f t="shared" si="39"/>
-        <v>5.5507405123835639E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.39272600542594E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="40"/>
-        <v>8.5587148101499588E-2</v>
+        <f t="shared" si="51"/>
+        <v>8.7737336745244601E-2</v>
       </c>
       <c r="E68">
-        <f t="shared" si="36"/>
-        <v>0.85890544677466474</v>
+        <f t="shared" si="47"/>
+        <v>0.85833540320049595</v>
       </c>
       <c r="F68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G68" s="1">
-        <f t="shared" si="41"/>
-        <v>2095669</v>
+        <f t="shared" si="52"/>
+        <v>2092033</v>
       </c>
       <c r="H68" s="9">
-        <f t="shared" ref="H68:I68" si="75">G44*$K$24</f>
-        <v>157444304.16999999</v>
+        <f t="shared" ref="H68:I68" si="84">G44*$K$25</f>
+        <v>158551047.97</v>
       </c>
       <c r="I68" s="126">
-        <f t="shared" si="75"/>
-        <v>4276133.9499999993</v>
+        <f t="shared" si="84"/>
+        <v>4275444.3899999997</v>
       </c>
       <c r="J68" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K68" s="3">
-        <f t="shared" si="43"/>
-        <v>454600187.54999995</v>
+        <f t="shared" si="54"/>
+        <v>461090671.04999995</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" ref="L68:N68" si="76">K44*$P$5</f>
-        <v>26087606.309999999</v>
+        <f t="shared" ref="L68:N68" si="85">K44*$P$5</f>
+        <v>18284717.739999998</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="76"/>
-        <v>96925070.769999996</v>
+        <f t="shared" si="85"/>
+        <v>118528468.39999999</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="76"/>
-        <v>58104911.449999996</v>
+        <f t="shared" si="85"/>
+        <v>52662386.759999998</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="45"/>
-        <v>181117588.53</v>
+        <f t="shared" si="56"/>
+        <v>189475572.89999998</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="46"/>
-        <v>221183655.04319996</v>
+        <f t="shared" si="57"/>
+        <v>215442710.23159999</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C69">
-        <f t="shared" si="39"/>
-        <v>6.1430542281545798E-2</v>
+        <f t="shared" si="50"/>
+        <v>5.5507405123835639E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="40"/>
-        <v>7.7324931560105614E-2</v>
+        <f t="shared" si="51"/>
+        <v>8.5587148101499588E-2</v>
       </c>
       <c r="E69">
-        <f t="shared" si="36"/>
-        <v>0.86124452615834857</v>
+        <f t="shared" si="47"/>
+        <v>0.85890544677466474</v>
       </c>
       <c r="F69">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="41"/>
-        <v>1988537</v>
+        <f t="shared" si="52"/>
+        <v>2095669</v>
       </c>
       <c r="H69" s="9">
-        <f t="shared" ref="H69:I69" si="77">G45*$K$24</f>
-        <v>145128590.17999998</v>
+        <f t="shared" ref="H69:I69" si="86">G45*$K$25</f>
+        <v>157444304.16999999</v>
       </c>
       <c r="I69" s="126">
-        <f t="shared" si="77"/>
-        <v>3864639.0199999996</v>
+        <f t="shared" si="86"/>
+        <v>4276133.9499999993</v>
       </c>
       <c r="J69" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="43"/>
-        <v>439943762.13999999</v>
+        <f t="shared" si="54"/>
+        <v>454600187.54999995</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" ref="L69:N69" si="78">K45*$P$5</f>
-        <v>25325642.509999998</v>
+        <f t="shared" ref="L69:N69" si="87">K45*$P$5</f>
+        <v>26087606.309999999</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="78"/>
-        <v>108174552.60999998</v>
+        <f t="shared" si="87"/>
+        <v>96925070.769999996</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="78"/>
-        <v>51311711.109999999</v>
+        <f t="shared" si="87"/>
+        <v>58104911.449999996</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="45"/>
-        <v>184811906.22999996</v>
+        <f t="shared" si="56"/>
+        <v>181117588.53</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="46"/>
-        <v>210798934.32080001</v>
+        <f t="shared" si="57"/>
+        <v>221183655.04319996</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C70">
-        <f t="shared" si="39"/>
-        <v>5.4466728198926721E-2</v>
+        <f t="shared" si="50"/>
+        <v>6.1430542281545798E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="40"/>
-        <v>9.0350313434120769E-2</v>
+        <f t="shared" si="51"/>
+        <v>7.7324931560105614E-2</v>
       </c>
       <c r="E70">
-        <f t="shared" si="36"/>
-        <v>0.85518295836695246</v>
+        <f t="shared" si="47"/>
+        <v>0.86124452615834857</v>
       </c>
       <c r="F70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="41"/>
-        <v>2127949</v>
+        <f t="shared" si="52"/>
+        <v>1988537</v>
       </c>
       <c r="H70" s="9">
-        <f t="shared" ref="H70:I70" si="79">G46*$K$24</f>
-        <v>167044875.66</v>
+        <f t="shared" ref="H70:I70" si="88">G46*$K$25</f>
+        <v>145128590.17999998</v>
       </c>
       <c r="I70" s="126">
-        <f t="shared" si="79"/>
-        <v>5144462.38</v>
+        <f t="shared" si="88"/>
+        <v>3864639.0199999996</v>
       </c>
       <c r="J70" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="43"/>
-        <v>441803505.45999998</v>
+        <f t="shared" si="54"/>
+        <v>439943762.13999999</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" ref="L70:N70" si="80">K46*$P$5</f>
-        <v>25495446.659999996</v>
+        <f t="shared" ref="L70:N70" si="89">K46*$P$5</f>
+        <v>25325642.509999998</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="80"/>
-        <v>115897452.21999998</v>
+        <f t="shared" si="89"/>
+        <v>108174552.60999998</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="80"/>
-        <v>45430626.259999998</v>
+        <f t="shared" si="89"/>
+        <v>51311711.109999999</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="45"/>
-        <v>186823525.13999999</v>
+        <f t="shared" si="56"/>
+        <v>184811906.22999996</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="46"/>
-        <v>207509501.45259997</v>
+        <f t="shared" si="57"/>
+        <v>210798934.32080001</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="50"/>
+        <v>5.4466728198926721E-2</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="51"/>
+        <v>9.0350313434120769E-2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="47"/>
+        <v>0.85518295836695246</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="52"/>
+        <v>2127949</v>
+      </c>
+      <c r="H71" s="9">
+        <f t="shared" ref="H71:I71" si="90">G47*$K$25</f>
+        <v>167044875.66</v>
+      </c>
+      <c r="I71" s="126">
+        <f t="shared" si="90"/>
+        <v>5144462.38</v>
+      </c>
+      <c r="J71" s="3">
+        <v>2018</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="54"/>
+        <v>441803505.45999998</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" ref="L71:N71" si="91">K47*$P$5</f>
+        <v>25495446.659999996</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="91"/>
+        <v>115897452.21999998</v>
+      </c>
+      <c r="N71" s="4">
+        <f t="shared" si="91"/>
+        <v>45430626.259999998</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="56"/>
+        <v>186823525.13999999</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="57"/>
+        <v>207509501.45259997</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>2019</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="39"/>
+      <c r="C72">
+        <f t="shared" si="50"/>
         <v>6.0133083339383872E-2</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="40"/>
+      <c r="D72">
+        <f t="shared" si="51"/>
         <v>9.5787829736467087E-2</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="36"/>
+      <c r="E72">
+        <f t="shared" si="47"/>
         <v>0.84407908692414901</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="37"/>
+      <c r="F72">
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
-      <c r="G71" s="1">
-        <f t="shared" si="41"/>
+      <c r="G72" s="1">
+        <f t="shared" si="52"/>
         <v>1988757</v>
       </c>
-      <c r="H71" s="9">
-        <f t="shared" ref="H71:I71" si="81">G47*$K$24</f>
+      <c r="H72" s="9">
+        <f t="shared" ref="H72:I72" si="92">G48*$K$25</f>
         <v>143815150.76999998</v>
       </c>
-      <c r="I71" s="126">
-        <f t="shared" si="81"/>
+      <c r="I72" s="126">
+        <f t="shared" si="92"/>
         <v>3476589.13</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J72" s="3">
         <v>2019</v>
       </c>
-      <c r="K71" s="3">
-        <f t="shared" si="43"/>
+      <c r="K72" s="3">
+        <f t="shared" si="54"/>
         <v>408837020.97999996</v>
       </c>
-      <c r="L71" s="4">
-        <f t="shared" ref="L71:N71" si="82">K47*$P$5</f>
+      <c r="L72" s="4">
+        <f t="shared" ref="L72:N72" si="93">K48*$P$5</f>
         <v>31849397.279999997</v>
       </c>
-      <c r="M71" s="4">
-        <f t="shared" si="82"/>
+      <c r="M72" s="4">
+        <f t="shared" si="93"/>
         <v>114901038.02</v>
       </c>
-      <c r="N71" s="4">
-        <f t="shared" si="82"/>
+      <c r="N72" s="4">
+        <f t="shared" si="93"/>
         <v>41150010.169999994</v>
       </c>
-      <c r="O71" s="4">
-        <f t="shared" si="45"/>
+      <c r="O72" s="4">
+        <f t="shared" si="56"/>
         <v>187900445.46999997</v>
       </c>
-      <c r="P71" s="3">
-        <f t="shared" si="46"/>
+      <c r="P72" s="3">
+        <f t="shared" si="57"/>
         <v>43483136.43</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="28" t="s">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="C72" s="28">
-        <f>AVERAGE(C52:C71)</f>
+      <c r="C73" s="28">
+        <f>AVERAGE(C53:C72)</f>
         <v>6.0704898346831182E-2</v>
       </c>
-      <c r="D72" s="28">
-        <f t="shared" ref="D72" si="83">AVERAGE(D52:D71)</f>
+      <c r="D73" s="28">
+        <f t="shared" ref="D73" si="94">AVERAGE(D53:D72)</f>
         <v>6.3696386768433602E-2</v>
       </c>
-      <c r="E72" s="28">
-        <f>AVERAGE(E52:E71)</f>
+      <c r="E73" s="28">
+        <f>AVERAGE(E53:E72)</f>
         <v>0.87559871488473517</v>
       </c>
-      <c r="F72" s="28">
-        <f>AVERAGE(F52:F71)</f>
+      <c r="F73" s="28">
+        <f>AVERAGE(F53:F72)</f>
         <v>1</v>
       </c>
-      <c r="G72" s="28">
-        <f>AVERAGE(G52:G71)</f>
+      <c r="G73" s="28">
+        <f>AVERAGE(G53:G72)</f>
         <v>2186513.5</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J73" s="3">
         <v>2020</v>
       </c>
-      <c r="K72" s="3">
-        <f t="shared" si="43"/>
+      <c r="K73" s="3">
+        <f t="shared" si="54"/>
         <v>360288721.56999999</v>
       </c>
-      <c r="L72" s="4">
-        <f t="shared" ref="L72:N72" si="84">K48*$P$5</f>
+      <c r="L73" s="4">
+        <f t="shared" ref="L73:N73" si="95">K49*$P$5</f>
         <v>24064264.879999999</v>
       </c>
-      <c r="M72" s="4">
-        <f t="shared" si="84"/>
+      <c r="M73" s="4">
+        <f t="shared" si="95"/>
         <v>116157416.33999999</v>
       </c>
-      <c r="N72" s="4">
-        <f t="shared" si="84"/>
+      <c r="N73" s="4">
+        <f t="shared" si="95"/>
         <v>43076123.639999993</v>
       </c>
-      <c r="O72" s="4">
-        <f t="shared" si="45"/>
+      <c r="O73" s="4">
+        <f t="shared" si="56"/>
         <v>183297804.85999998</v>
       </c>
-      <c r="P72" s="3">
-        <f t="shared" si="46"/>
+      <c r="P73" s="3">
+        <f t="shared" si="57"/>
         <v>31750790.199999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="B28:N28"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:R26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="T27:U27"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K51:P51"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B27:N27"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:R25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K52:P52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44830,38 +44927,38 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="144" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145" t="s">
+      <c r="C1" s="144"/>
+      <c r="D1" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145" t="s">
+      <c r="E1" s="144"/>
+      <c r="F1" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145" t="s">
+      <c r="I1" s="144"/>
+      <c r="J1" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145" t="s">
+      <c r="K1" s="144"/>
+      <c r="L1" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145" t="s">
+      <c r="M1" s="144"/>
+      <c r="N1" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145" t="s">
+      <c r="O1" s="144"/>
+      <c r="P1" s="144" t="s">
         <v>356</v>
       </c>
-      <c r="Q1" s="145"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -46550,13 +46647,13 @@
       <c r="B1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="148" t="s">
+      <c r="C1" s="153" t="s">
         <v>346</v>
       </c>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
       <c r="L1">
         <v>0.17245495999999999</v>
       </c>
@@ -47502,13 +47599,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="107"/>
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="165" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="108" t="s">
@@ -48115,22 +48212,22 @@
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
@@ -48978,7 +49075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1B370-8A88-4D1E-A8AB-D198EB7EC471}">
   <dimension ref="A1:AA98"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A62" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L78" sqref="L78:L98"/>
     </sheetView>
   </sheetViews>
@@ -49000,11 +49097,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="166" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
       <c r="E1" s="46" t="s">
         <v>185</v>
       </c>
@@ -49014,20 +49111,20 @@
       <c r="G1" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="169" t="s">
+      <c r="H1" s="168" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="168" t="s">
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="167" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
+      <c r="N1" s="144"/>
+      <c r="O1" s="144"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
@@ -49800,13 +49897,13 @@
       <c r="A23">
         <v>2020</v>
       </c>
-      <c r="B23" s="136">
+      <c r="B23" s="135">
         <v>563728255</v>
       </c>
-      <c r="C23" s="136">
+      <c r="C23" s="135">
         <v>405052868</v>
       </c>
-      <c r="D23" s="136">
+      <c r="D23" s="135">
         <v>8756363</v>
       </c>
       <c r="E23" s="49">
@@ -50899,64 +50996,64 @@
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B50" s="148" t="s">
+      <c r="B50" s="153" t="s">
         <v>423</v>
       </c>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="148"/>
-      <c r="F50" s="148"/>
-      <c r="G50" s="148"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="148"/>
-      <c r="J50" s="148"/>
-      <c r="K50" s="148"/>
-      <c r="L50" s="148"/>
-      <c r="M50" s="148"/>
-      <c r="P50" s="148" t="s">
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="153"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
+      <c r="P50" s="153" t="s">
         <v>423</v>
       </c>
-      <c r="Q50" s="148"/>
-      <c r="R50" s="148"/>
-      <c r="S50" s="148"/>
-      <c r="T50" s="148"/>
-      <c r="U50" s="148"/>
-      <c r="V50" s="148"/>
-      <c r="W50" s="148"/>
-      <c r="X50" s="148"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="148"/>
-      <c r="AA50" s="148"/>
+      <c r="Q50" s="153"/>
+      <c r="R50" s="153"/>
+      <c r="S50" s="153"/>
+      <c r="T50" s="153"/>
+      <c r="U50" s="153"/>
+      <c r="V50" s="153"/>
+      <c r="W50" s="153"/>
+      <c r="X50" s="153"/>
+      <c r="Y50" s="153"/>
+      <c r="Z50" s="153"/>
+      <c r="AA50" s="153"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="148" t="s">
+      <c r="B51" s="153" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
-      <c r="P51" s="148" t="s">
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="P51" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="Q51" s="148"/>
-      <c r="R51" s="148"/>
-      <c r="S51" s="148"/>
-      <c r="T51" s="148"/>
-      <c r="U51" s="148"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
+      <c r="Q51" s="153"/>
+      <c r="R51" s="153"/>
+      <c r="S51" s="153"/>
+      <c r="T51" s="153"/>
+      <c r="U51" s="153"/>
+      <c r="V51" s="153"/>
+      <c r="W51" s="153"/>
+      <c r="X51" s="153"/>
+      <c r="Y51" s="153"/>
+      <c r="Z51" s="153"/>
+      <c r="AA51" s="153"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -52875,36 +52972,36 @@
       </c>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B75" s="148" t="s">
+      <c r="B75" s="153" t="s">
         <v>423</v>
       </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="148"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
-      <c r="J75" s="148"/>
-      <c r="K75" s="148"/>
-      <c r="L75" s="148"/>
-      <c r="M75" s="148"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="153"/>
+      <c r="L75" s="153"/>
+      <c r="M75" s="153"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B76" s="148" t="s">
+      <c r="B76" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
-      <c r="J76" s="148"/>
-      <c r="K76" s="148"/>
-      <c r="L76" s="148"/>
-      <c r="M76" s="148"/>
+      <c r="C76" s="153"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
+      <c r="G76" s="153"/>
+      <c r="H76" s="153"/>
+      <c r="I76" s="153"/>
+      <c r="J76" s="153"/>
+      <c r="K76" s="153"/>
+      <c r="L76" s="153"/>
+      <c r="M76" s="153"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -54081,7 +54178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B158D003-6CE6-47DC-9594-4C83C40B7901}">
   <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N54" sqref="N54:N74"/>
     </sheetView>
   </sheetViews>
@@ -54107,7 +54204,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -54123,7 +54220,7 @@
         <v>198</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="169" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -54145,32 +54242,32 @@
         <v>286</v>
       </c>
       <c r="N1" s="95"/>
-      <c r="O1" s="145" t="s">
+      <c r="O1" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="144"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="140"/>
-      <c r="B2" s="148" t="s">
+      <c r="A2" s="139"/>
+      <c r="B2" s="153" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="170"/>
-      <c r="H2" s="148" t="s">
+      <c r="G2" s="169"/>
+      <c r="H2" s="153" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="99"/>
       <c r="N2" t="s">
         <v>218</v>
@@ -55742,11 +55839,11 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="53"/>
@@ -55984,22 +56081,22 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="148" t="s">
+      <c r="B51" s="153" t="s">
         <v>437</v>
       </c>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
-      <c r="J51" s="148"/>
-      <c r="K51" s="148"/>
-      <c r="L51" s="148"/>
-      <c r="M51" s="148"/>
-      <c r="N51" s="148"/>
-      <c r="O51" s="148"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="153"/>
+      <c r="O51" s="153"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
@@ -56046,24 +56143,24 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="148" t="s">
+      <c r="B53" s="153" t="s">
         <v>436</v>
       </c>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
-      <c r="E53" s="148"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="148"/>
-      <c r="I53" s="148" t="s">
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="J53" s="148"/>
-      <c r="K53" s="148"/>
-      <c r="L53" s="148"/>
-      <c r="M53" s="148"/>
-      <c r="N53" s="148"/>
-      <c r="O53" s="148"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="153"/>
+      <c r="O53" s="153"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -59943,10 +60040,10 @@
       <c r="G24" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="171">
+      <c r="H24" s="170">
         <v>2132298</v>
       </c>
-      <c r="I24" s="172" t="s">
+      <c r="I24" s="171" t="s">
         <v>209</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -59990,8 +60087,8 @@
         <f>D2*$H$44</f>
         <v>955101.35158651904</v>
       </c>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="171"/>
       <c r="K25" s="3">
         <v>2000</v>
       </c>
@@ -60039,8 +60136,8 @@
         <f t="shared" ref="G26:G43" si="48">D3*$H$44</f>
         <v>998224.41556934861</v>
       </c>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="171"/>
       <c r="K26" s="3">
         <v>2001</v>
       </c>
@@ -60088,8 +60185,8 @@
         <f t="shared" si="48"/>
         <v>1095320.5754394107</v>
       </c>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="171"/>
       <c r="K27" s="3">
         <v>2002</v>
       </c>
@@ -60137,8 +60234,8 @@
         <f t="shared" si="48"/>
         <v>1184187.3310516851</v>
       </c>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="171"/>
       <c r="K28" s="3">
         <v>2003</v>
       </c>
@@ -60186,8 +60283,8 @@
         <f t="shared" si="48"/>
         <v>1087962.0395614596</v>
       </c>
-      <c r="H29" s="171"/>
-      <c r="I29" s="172"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="171"/>
       <c r="K29" s="3">
         <v>2004</v>
       </c>
@@ -60235,8 +60332,8 @@
         <f t="shared" si="48"/>
         <v>1109051.429897326</v>
       </c>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="171"/>
       <c r="K30" s="3">
         <v>2005</v>
       </c>
@@ -60284,8 +60381,8 @@
         <f t="shared" si="48"/>
         <v>1140433.8186669762</v>
       </c>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="171"/>
       <c r="K31" s="3">
         <v>2006</v>
       </c>
@@ -60333,8 +60430,8 @@
         <f t="shared" si="48"/>
         <v>1065164.0814432392</v>
       </c>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="171"/>
       <c r="K32" s="3">
         <v>2007</v>
       </c>
@@ -60387,8 +60484,8 @@
         <f t="shared" si="48"/>
         <v>1369276.4429491272</v>
       </c>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="171"/>
       <c r="K33" s="3">
         <v>2008</v>
       </c>
@@ -60441,8 +60538,8 @@
         <f t="shared" si="48"/>
         <v>1456205.4063460759</v>
       </c>
-      <c r="H34" s="171"/>
-      <c r="I34" s="172"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="171"/>
       <c r="K34" s="3">
         <v>2009</v>
       </c>
@@ -60495,8 +60592,8 @@
         <f t="shared" si="48"/>
         <v>1565880.7645455075</v>
       </c>
-      <c r="H35" s="171"/>
-      <c r="I35" s="172"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="171"/>
       <c r="K35" s="3">
         <v>2010</v>
       </c>
@@ -60549,8 +60646,8 @@
         <f t="shared" si="48"/>
         <v>1518117.8258599688</v>
       </c>
-      <c r="H36" s="171"/>
-      <c r="I36" s="172"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="171"/>
       <c r="K36" s="3">
         <v>2011</v>
       </c>
@@ -60603,8 +60700,8 @@
         <f t="shared" si="48"/>
         <v>1505054.8987760313</v>
       </c>
-      <c r="H37" s="171"/>
-      <c r="I37" s="172"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="171"/>
       <c r="K37" s="3">
         <v>2012</v>
       </c>
@@ -60657,8 +60754,8 @@
         <f t="shared" si="48"/>
         <v>1348105.7891989097</v>
       </c>
-      <c r="H38" s="171"/>
-      <c r="I38" s="172"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="171"/>
       <c r="K38" s="3">
         <v>2013</v>
       </c>
@@ -60715,8 +60812,8 @@
         <f t="shared" si="48"/>
         <v>1574194.3906259066</v>
       </c>
-      <c r="H39" s="171"/>
-      <c r="I39" s="172"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="171"/>
       <c r="K39" s="3">
         <v>2014</v>
       </c>
@@ -60774,8 +60871,8 @@
         <f t="shared" si="48"/>
         <v>1597921.2251290679</v>
       </c>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="171"/>
       <c r="K40" s="3">
         <v>2015</v>
       </c>
@@ -60829,8 +60926,8 @@
         <f t="shared" si="48"/>
         <v>1607806.4678925693</v>
       </c>
-      <c r="H41" s="171"/>
-      <c r="I41" s="172"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="171"/>
       <c r="K41" s="3">
         <v>2016</v>
       </c>
@@ -60884,8 +60981,8 @@
         <f t="shared" si="48"/>
         <v>1596045.1708335751</v>
       </c>
-      <c r="H42" s="171"/>
-      <c r="I42" s="172"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="171"/>
       <c r="K42" s="3">
         <v>2017</v>
       </c>
@@ -60939,8 +61036,8 @@
         <f t="shared" si="48"/>
         <v>1672433.5228261501</v>
       </c>
-      <c r="H43" s="171"/>
-      <c r="I43" s="172"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="171"/>
       <c r="K43" s="3">
         <v>2018</v>
       </c>
@@ -62256,39 +62353,39 @@
         <v>259</v>
       </c>
       <c r="B32">
-        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(B1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3407592</v>
       </c>
       <c r="C32">
-        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(C1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3256379</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(D1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3174639</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(E1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3120838</v>
       </c>
       <c r="F32">
-        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(F1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3175791</v>
       </c>
       <c r="G32">
-        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(G1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3116142</v>
       </c>
       <c r="H32">
-        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(H1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>3070239</v>
       </c>
       <c r="I32">
-        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(I1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2963184</v>
       </c>
       <c r="J32">
-        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$28:$B$46,2)</f>
+        <f>VLOOKUP(J1,'Prod. Gas Bumi, LNG, LPG'!$A$29:$B$47,2)</f>
         <v>2996802</v>
       </c>
     </row>
